--- a/Query per popolare il DB/RiempimentoDB.xlsx
+++ b/Query per popolare il DB/RiempimentoDB.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caste\Desktop\2ndYear\db\ProgettoBasiDiDati\Query per popolare il DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D01194-EBCA-4BA2-A30A-F15B3B771A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBC317F-B115-44A1-8C48-B34BF06B28CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="751" activeTab="3" xr2:uid="{8B2E1F49-2C79-4923-92B4-4A167F7E9540}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="751" firstSheet="4" activeTab="10" xr2:uid="{8B2E1F49-2C79-4923-92B4-4A167F7E9540}"/>
   </bookViews>
   <sheets>
     <sheet name="FILM" sheetId="13" r:id="rId1"/>
-    <sheet name="CASA_PRODUTTRICE" sheetId="12" r:id="rId2"/>
-    <sheet name="produrre_film" sheetId="11" r:id="rId3"/>
-    <sheet name="distribuire_film" sheetId="9" r:id="rId4"/>
-    <sheet name="LINGUA" sheetId="8" r:id="rId5"/>
-    <sheet name="EPISODI" sheetId="7" r:id="rId6"/>
-    <sheet name="FILM_troppi" sheetId="6" r:id="rId7"/>
-    <sheet name="UTENTE" sheetId="1" r:id="rId8"/>
-    <sheet name="ACCOUNT" sheetId="2" r:id="rId9"/>
-    <sheet name="TITOLARE" sheetId="3" r:id="rId10"/>
-    <sheet name="PAGAMENTO" sheetId="4" r:id="rId11"/>
-    <sheet name="ABBONAMENTO" sheetId="5" r:id="rId12"/>
+    <sheet name="CAST" sheetId="14" r:id="rId2"/>
+    <sheet name="partecipare_film" sheetId="15" r:id="rId3"/>
+    <sheet name="CASA_PRODUTTRICE" sheetId="12" r:id="rId4"/>
+    <sheet name="produrre_film" sheetId="11" r:id="rId5"/>
+    <sheet name="distribuire_film" sheetId="9" r:id="rId6"/>
+    <sheet name="LINGUA" sheetId="8" r:id="rId7"/>
+    <sheet name="EPISODI" sheetId="7" r:id="rId8"/>
+    <sheet name="FILM_troppi" sheetId="6" r:id="rId9"/>
+    <sheet name="UTENTE" sheetId="1" r:id="rId10"/>
+    <sheet name="ACCOUNT" sheetId="2" r:id="rId11"/>
+    <sheet name="TITOLARE" sheetId="3" r:id="rId12"/>
+    <sheet name="PAGAMENTO" sheetId="4" r:id="rId13"/>
+    <sheet name="ABBONAMENTO" sheetId="5" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="820">
   <si>
     <t>giorgio45</t>
   </si>
@@ -2214,6 +2216,297 @@
   </si>
   <si>
     <t>annoUscita</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>codArtista</t>
+  </si>
+  <si>
+    <t>attore</t>
+  </si>
+  <si>
+    <t>nomePersonaggio</t>
+  </si>
+  <si>
+    <t>Winnie The Pooh</t>
+  </si>
+  <si>
+    <t>regista</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Cummings</t>
+  </si>
+  <si>
+    <t>ATT31</t>
+  </si>
+  <si>
+    <t>REG12</t>
+  </si>
+  <si>
+    <t>Bud</t>
+  </si>
+  <si>
+    <t>Luckey</t>
+  </si>
+  <si>
+    <t>Eeyore</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Ferguson</t>
+  </si>
+  <si>
+    <t>Owl</t>
+  </si>
+  <si>
+    <t>REG13</t>
+  </si>
+  <si>
+    <t>REG14</t>
+  </si>
+  <si>
+    <t>REG15</t>
+  </si>
+  <si>
+    <t>REG16</t>
+  </si>
+  <si>
+    <t>REG17</t>
+  </si>
+  <si>
+    <t>Peli</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Schulman</t>
+  </si>
+  <si>
+    <t>Joost</t>
+  </si>
+  <si>
+    <t>Landon</t>
+  </si>
+  <si>
+    <t>Plotkin</t>
+  </si>
+  <si>
+    <t>Oren</t>
+  </si>
+  <si>
+    <t>Tod</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>ATT32</t>
+  </si>
+  <si>
+    <t>ATT33</t>
+  </si>
+  <si>
+    <t>REG18</t>
+  </si>
+  <si>
+    <t>REG19</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>REG20</t>
+  </si>
+  <si>
+    <t>ATT34</t>
+  </si>
+  <si>
+    <t>ATT35</t>
+  </si>
+  <si>
+    <t>ATT36</t>
+  </si>
+  <si>
+    <t>C. Reilly</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Silverman</t>
+  </si>
+  <si>
+    <t>McBrayer</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>ATT37</t>
+  </si>
+  <si>
+    <t>ATT38</t>
+  </si>
+  <si>
+    <t>ATT39</t>
+  </si>
+  <si>
+    <t>ATT40</t>
+  </si>
+  <si>
+    <t>ATT41</t>
+  </si>
+  <si>
+    <t>ATT42</t>
+  </si>
+  <si>
+    <t>ATT43</t>
+  </si>
+  <si>
+    <t>ATT44</t>
+  </si>
+  <si>
+    <t>ATT45</t>
+  </si>
+  <si>
+    <t>Vanellope von Schweetz</t>
+  </si>
+  <si>
+    <t>Felix Aggiustatutto</t>
+  </si>
+  <si>
+    <t>REG21</t>
+  </si>
+  <si>
+    <t>REG22</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Buck</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Elsa</t>
+  </si>
+  <si>
+    <t>Kristoff</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Menzel</t>
+  </si>
+  <si>
+    <t>Groff</t>
+  </si>
+  <si>
+    <t>Kristen</t>
+  </si>
+  <si>
+    <t>Idina</t>
+  </si>
+  <si>
+    <t>Jonathan</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>REG23</t>
+  </si>
+  <si>
+    <t>Hiro Hamada</t>
+  </si>
+  <si>
+    <t>Baymax</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>Adsit</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T. J. </t>
+  </si>
+  <si>
+    <t>Byron</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>REG24</t>
+  </si>
+  <si>
+    <t>Ginnifer Goodwin: Judy Hopps</t>
+  </si>
+  <si>
+    <t>Jason Bateman: Nick Wilde</t>
+  </si>
+  <si>
+    <t>Idris Elba: Capitano Bogo</t>
+  </si>
+  <si>
+    <t>Judy Hoops</t>
   </si>
 </sst>
 </file>
@@ -2598,1265 +2891,1277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D98D9EE-02FF-4CD3-B3E7-4B10FBF884E9}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="49.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="145.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="145.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>424</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>425</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>427</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>722</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="7"/>
-      <c r="N1" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="7"/>
+      <c r="O1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B2" t="s">
         <v>693</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>2011</v>
       </c>
-      <c r="F2" t="str">
-        <f>_xlfn.CONCAT("('",A2,"','",B2,"',",C2,",'",D2,"',",E2,")")</f>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G39" si="0">_xlfn.CONCAT("('",B2,"','",C2,"',",D2,",'",E2,"',",F2,")")</f>
         <v>('DIS1','Winnie the Pooh – Nuove avventure nel Bosco dei 100 Acri','00:58:00','T',2011)</v>
       </c>
-      <c r="G2" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F2)</f>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H39" si="1">_xlfn.CONCAT("INSERT INTO FILM (",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,")"," VALUES ",G2)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS1','Winnie the Pooh – Nuove avventure nel Bosco dei 100 Acri','00:58:00','T',2011)</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B3" t="s">
         <v>692</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>2012</v>
       </c>
-      <c r="F3" t="str">
-        <f>_xlfn.CONCAT("('",A3,"','",B3,"',",C3,",'",D3,"',",E3,")")</f>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
         <v>('DIS2','Ralph Spaccatutto','01:30:00','T',2012)</v>
       </c>
-      <c r="G3" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F3)</f>
+      <c r="H3" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS2','Ralph Spaccatutto','01:30:00','T',2012)</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B4" t="s">
         <v>691</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>2013</v>
       </c>
-      <c r="F4" t="str">
-        <f>_xlfn.CONCAT("('",A4,"','",B4,"',",C4,",'",D4,"',",E4,")")</f>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
         <v>('DIS3','Frozen – Il regno di ghiaccio','01:00:00','T',2013)</v>
       </c>
-      <c r="G4" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F4)</f>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS3','Frozen – Il regno di ghiaccio','01:00:00','T',2013)</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B5" t="s">
         <v>690</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>2014</v>
       </c>
-      <c r="F5" t="str">
-        <f>_xlfn.CONCAT("('",A5,"','",B5,"',",C5,",'",D5,"',",E5,")")</f>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
         <v>('DIS4','Big Hero 6','01:15:00','T',2014)</v>
       </c>
-      <c r="G5" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F5)</f>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS4','Big Hero 6','01:15:00','T',2014)</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>689</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>2015</v>
       </c>
-      <c r="F6" t="str">
-        <f>_xlfn.CONCAT("('",A6,"','",B6,"',",C6,",'",D6,"',",E6,")")</f>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
         <v>('DIS5','Zootropolis','01:25:00','T',2015)</v>
       </c>
-      <c r="G6" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F6)</f>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS5','Zootropolis','01:25:00','T',2015)</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>688</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>2016</v>
       </c>
-      <c r="F7" t="str">
-        <f>_xlfn.CONCAT("('",A7,"','",B7,"',",C7,",'",D7,"',",E7,")")</f>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
         <v>('DIS6','Oceania','01:30:00','T',2016)</v>
       </c>
-      <c r="G7" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F7)</f>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS6','Oceania','01:30:00','T',2016)</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>687</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>2019</v>
       </c>
-      <c r="F8" t="str">
-        <f>_xlfn.CONCAT("('",A8,"','",B8,"',",C8,",'",D8,"',",E8,")")</f>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
         <v>('DIS7','Ralph Spacca Internet – Ralph Spaccatutto 2','01:02:00','T',2019)</v>
       </c>
-      <c r="G8" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F8)</f>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS7','Ralph Spacca Internet – Ralph Spaccatutto 2','01:02:00','T',2019)</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>686</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>2019</v>
       </c>
-      <c r="F9" t="str">
-        <f>_xlfn.CONCAT("('",A9,"','",B9,"',",C9,",'",D9,"',",E9,")")</f>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
         <v>('DIS8','Frozen II – Il segreto di Arendelle  ','01:14:00','T',2019)</v>
       </c>
-      <c r="G9" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F9)</f>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS8','Frozen II – Il segreto di Arendelle  ','01:14:00','T',2019)</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>500</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>2001</v>
       </c>
-      <c r="F10" t="str">
-        <f>_xlfn.CONCAT("('",A10,"','",B10,"',",C10,",'",D10,"',",E10,")")</f>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
         <v>('WARN1','Harry Potter e La Pietra Filosofale ','02:10:00','VM14',2001)</v>
       </c>
-      <c r="G10" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F10)</f>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN1','Harry Potter e La Pietra Filosofale ','02:10:00','VM14',2001)</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>492</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>483</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>501</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>2002</v>
       </c>
-      <c r="F11" t="str">
-        <f>_xlfn.CONCAT("('",A11,"','",B11,"',",C11,",'",D11,"',",E11,")")</f>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
         <v>('WARN2','Harry Potter e La Camera Dei Segreti ','02:07:00','VM14',2002)</v>
       </c>
-      <c r="G11" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F11)</f>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN2','Harry Potter e La Camera Dei Segreti ','02:07:00','VM14',2002)</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>492</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>483</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>502</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F12" s="2">
         <v>2004</v>
       </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT("('",A12,"','",B12,"',",C12,",'",D12,"',",E12,")")</f>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
         <v>('WARN3','Harry Potter e Il Prigioniero Di Azkaban ','02:20:00','VM14',2004)</v>
       </c>
-      <c r="G12" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F12)</f>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN3','Harry Potter e Il Prigioniero Di Azkaban ','02:20:00','VM14',2004)</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>492</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>483</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>503</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F13" s="2">
         <v>2005</v>
       </c>
-      <c r="F13" t="str">
-        <f>_xlfn.CONCAT("('",A13,"','",B13,"',",C13,",'",D13,"',",E13,")")</f>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
         <v>('WARN4','Harry Potter e Il Calice Di Fuoco ','02:15:00','VM14',2005)</v>
       </c>
-      <c r="G13" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F13)</f>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN4','Harry Potter e Il Calice Di Fuoco ','02:15:00','VM14',2005)</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>492</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>483</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>504</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>2007</v>
       </c>
-      <c r="F14" t="str">
-        <f>_xlfn.CONCAT("('",A14,"','",B14,"',",C14,",'",D14,"',",E14,")")</f>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
         <v>('WARN5','Harry Potter e L'Ordine Della Fenice ','02:05:00','VM14',2007)</v>
       </c>
-      <c r="G14" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F14)</f>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN5','Harry Potter e L'Ordine Della Fenice ','02:05:00','VM14',2007)</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>492</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>483</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>505</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>2009</v>
       </c>
-      <c r="F15" t="str">
-        <f>_xlfn.CONCAT("('",A15,"','",B15,"',",C15,",'",D15,"',",E15,")")</f>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
         <v>('WARN6','Harry Potter e Il Principe Mezzosangue ','02:12:00','VM14',2009)</v>
       </c>
-      <c r="G15" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F15)</f>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN6','Harry Potter e Il Principe Mezzosangue ','02:12:00','VM14',2009)</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>492</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>483</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>506</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>2010</v>
       </c>
-      <c r="F16" t="str">
-        <f>_xlfn.CONCAT("('",A16,"','",B16,"',",C16,",'",D16,"',",E16,")")</f>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
         <v>('WARN7','Harry Potter e I Doni Della Morte – Parte 1 ','02:17:00','VM14',2010)</v>
       </c>
-      <c r="G16" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F16)</f>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN7','Harry Potter e I Doni Della Morte – Parte 1 ','02:17:00','VM14',2010)</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>492</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>483</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>507</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>2011</v>
       </c>
-      <c r="F17" t="str">
-        <f>_xlfn.CONCAT("('",A17,"','",B17,"',",C17,",'",D17,"',",E17,")")</f>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
         <v>('WARN8','Harry Potter e I Doni Della Morte – Parte 2 ','02:25:00','VM14',2011)</v>
       </c>
-      <c r="G17" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F17)</f>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN8','Harry Potter e I Doni Della Morte – Parte 2 ','02:25:00','VM14',2011)</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>492</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>483</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>560</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>2007</v>
       </c>
-      <c r="F18" t="str">
-        <f>_xlfn.CONCAT("('",A18,"','",B18,"',",C18,",'",D18,"',",E18,")")</f>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
         <v>('HOR1','Paranormal activity','01:38:00','VM18',2007)</v>
       </c>
-      <c r="G18" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F18)</f>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR1','Paranormal activity','01:38:00','VM18',2007)</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>571</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>572</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>561</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>2010</v>
       </c>
-      <c r="F19" t="str">
-        <f>_xlfn.CONCAT("('",A19,"','",B19,"',",C19,",'",D19,"',",E19,")")</f>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
         <v>('HOR2','Paranormal activity 2','01:42:00','VM18',2010)</v>
       </c>
-      <c r="G19" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F19)</f>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR2','Paranormal activity 2','01:42:00','VM18',2010)</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>571</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>574</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>573</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>562</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E20" s="2">
+      <c r="F20" s="2">
         <v>2011</v>
       </c>
-      <c r="F20" t="str">
-        <f>_xlfn.CONCAT("('",A20,"','",B20,"',",C20,",'",D20,"',",E20,")")</f>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
         <v>('HOR3','Paranormal activity 3 ','01:47:00','VM18',2011)</v>
       </c>
-      <c r="G20" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F20)</f>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR3','Paranormal activity 3 ','01:47:00','VM18',2011)</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>571</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>574</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>563</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E21" s="2">
+      <c r="F21" s="2">
         <v>2012</v>
       </c>
-      <c r="F21" t="str">
-        <f>_xlfn.CONCAT("('",A21,"','",B21,"',",C21,",'",D21,"',",E21,")")</f>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
         <v>('HOR4','Paranormal activity 4 ','01:39:00','VM18',2012)</v>
       </c>
-      <c r="G21" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F21)</f>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR4','Paranormal activity 4 ','01:39:00','VM18',2012)</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>571</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>574</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>564</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E22" s="2">
+      <c r="F22" s="2">
         <v>2014</v>
       </c>
-      <c r="F22" t="str">
-        <f>_xlfn.CONCAT("('",A22,"','",B22,"',",C22,",'",D22,"',",E22,")")</f>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
         <v>('HOR5','Il segnato','01:51:00','VM18',2014)</v>
       </c>
-      <c r="G22" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F22)</f>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR5','Il segnato','01:51:00','VM18',2014)</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>571</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>574</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>573</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>576</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>575</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>565</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="E23" s="2">
+      <c r="F23" s="2">
         <v>2015</v>
       </c>
-      <c r="F23" t="str">
-        <f>_xlfn.CONCAT("('",A23,"','",B23,"',",C23,",'",D23,"',",E23,")")</f>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
         <v>('HOR6','Paranormal activity: La dimensione fantasma','01:27:00','VM18',2015)</v>
       </c>
-      <c r="G23" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F23)</f>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR6','Paranormal activity: La dimensione fantasma','01:27:00','VM18',2015)</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>589</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>573</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>583</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>577</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2008</v>
       </c>
-      <c r="F24" t="str">
-        <f>_xlfn.CONCAT("('",A24,"','",B24,"',",C24,",'",D24,"',",E24,")")</f>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
         <v>('TWIL1','Twilight','02:00:00','VM14',2008)</v>
       </c>
-      <c r="G24" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F24)</f>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('TWIL1','Twilight','02:00:00','VM14',2008)</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>589</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>590</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>591</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>592</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>593</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>584</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>578</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2009</v>
       </c>
-      <c r="F25" t="str">
-        <f>_xlfn.CONCAT("('",A25,"','",B25,"',",C25,",'",D25,"',",E25,")")</f>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
         <v>('TWIL2','The Twilight Saga: New Moon','02:20:00','VM15',2009)</v>
       </c>
-      <c r="G25" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F25)</f>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('TWIL2','The Twilight Saga: New Moon','02:20:00','VM15',2009)</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>589</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>590</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>591</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>595</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>585</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>579</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2010</v>
       </c>
-      <c r="F26" t="str">
-        <f>_xlfn.CONCAT("('",A26,"','",B26,"',",C26,",'",D26,"',",E26,")")</f>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
         <v>('TWIL3','Twilight / New Moon ','01:50:00','VM16',2010)</v>
       </c>
-      <c r="G26" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F26)</f>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('TWIL3','Twilight / New Moon ','01:50:00','VM16',2010)</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>589</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>590</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>591</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>595</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>624</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E27" s="2">
+      <c r="F27" s="2">
         <v>2008</v>
       </c>
-      <c r="F27" t="str">
-        <f>_xlfn.CONCAT("('",A27,"','",B27,"',",C27,",'",D27,"',",E27,")")</f>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
         <v>('AVEN1','Iron Man ','01:40:00','T',2008)</v>
       </c>
-      <c r="G27" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F27)</f>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN1','Iron Man ','01:40:00','T',2008)</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>652</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>653</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>654</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>625</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E28" s="2">
+      <c r="F28" s="2">
         <v>2008</v>
       </c>
-      <c r="F28" t="str">
-        <f>_xlfn.CONCAT("('",A28,"','",B28,"',",C28,",'",D28,"',",E28,")")</f>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
         <v>('AVEN2','L'Incredibile Hulk ','02:00:00','T',2008)</v>
       </c>
-      <c r="G28" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F28)</f>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN2','L'Incredibile Hulk ','02:00:00','T',2008)</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>626</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E29" s="2">
+      <c r="F29" s="2">
         <v>2010</v>
       </c>
-      <c r="F29" t="str">
-        <f>_xlfn.CONCAT("('",A29,"','",B29,"',",C29,",'",D29,"',",E29,")")</f>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
         <v>('AVEN3','Iron Man 2 ','01:55:00','T',2010)</v>
       </c>
-      <c r="G29" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F29)</f>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN3','Iron Man 2 ','01:55:00','T',2010)</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>627</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E30" s="2">
+      <c r="F30" s="2">
         <v>2011</v>
       </c>
-      <c r="F30" t="str">
-        <f>_xlfn.CONCAT("('",A30,"','",B30,"',",C30,",'",D30,"',",E30,")")</f>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
         <v>('AVEN4','Thor ','02:05:00','T',2011)</v>
       </c>
-      <c r="G30" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F30)</f>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN4','Thor ','02:05:00','T',2011)</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>628</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F31" s="2">
         <v>2011</v>
       </c>
-      <c r="F31" t="str">
-        <f>_xlfn.CONCAT("('",A31,"','",B31,"',",C31,",'",D31,"',",E31,")")</f>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
         <v>('AVEN5','Captain America: Il Primo Vendicatore ','02:20:00','T',2011)</v>
       </c>
-      <c r="G31" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F31)</f>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN5','Captain America: Il Primo Vendicatore ','02:20:00','T',2011)</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>629</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F32" s="2">
         <v>2012</v>
       </c>
-      <c r="F32" t="str">
-        <f>_xlfn.CONCAT("('",A32,"','",B32,"',",C32,",'",D32,"',",E32,")")</f>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
         <v>('AVEN6','Avengers ','02:00:00','T',2012)</v>
       </c>
-      <c r="G32" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F32)</f>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN6','Avengers ','02:00:00','T',2012)</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>630</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F33" s="2">
         <v>2013</v>
       </c>
-      <c r="F33" t="str">
-        <f>_xlfn.CONCAT("('",A33,"','",B33,"',",C33,",'",D33,"',",E33,")")</f>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
         <v>('AVEN7','Iron Man 3 ','02:05:00','T',2013)</v>
       </c>
-      <c r="G33" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F33)</f>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN7','Iron Man 3 ','02:05:00','T',2013)</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>631</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F34" s="2">
         <v>2013</v>
       </c>
-      <c r="F34" t="str">
-        <f>_xlfn.CONCAT("('",A34,"','",B34,"',",C34,",'",D34,"',",E34,")")</f>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
         <v>('AVEN8','Thor: The Dark World ','01:45:00','T',2013)</v>
       </c>
-      <c r="G34" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F34)</f>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN8','Thor: The Dark World ','01:45:00','T',2013)</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>632</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F35" s="2">
         <v>2014</v>
       </c>
-      <c r="F35" t="str">
-        <f>_xlfn.CONCAT("('",A35,"','",B35,"',",C35,",'",D35,"',",E35,")")</f>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
         <v>('AVEN9','Captain America: The Winter Soldier','01:52:00','T',2014)</v>
       </c>
-      <c r="G35" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F35)</f>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN9','Captain America: The Winter Soldier','01:52:00','T',2014)</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>633</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E36" s="2">
+      <c r="F36" s="2">
         <v>2015</v>
       </c>
-      <c r="F36" t="str">
-        <f>_xlfn.CONCAT("('",A36,"','",B36,"',",C36,",'",D36,"',",E36,")")</f>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
         <v>('AVEN10','Avengers: Age of Ultron ','01:46:00','T',2015)</v>
       </c>
-      <c r="G36" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F36)</f>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN10','Avengers: Age of Ultron ','01:46:00','T',2015)</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>634</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E37" s="2">
+      <c r="F37" s="2">
         <v>2015</v>
       </c>
-      <c r="F37" t="str">
-        <f>_xlfn.CONCAT("('",A37,"','",B37,"',",C37,",'",D37,"',",E37,")")</f>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
         <v>('AVEN11','Ant-Man','01:45:00','T',2015)</v>
       </c>
-      <c r="G37" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F37)</f>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN11','Ant-Man','01:45:00','T',2015)</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>635</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>2016</v>
       </c>
-      <c r="F38" t="str">
-        <f>_xlfn.CONCAT("('",A38,"','",B38,"',",C38,",'",D38,"',",E38,")")</f>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
         <v>('AVEN12','Captain America: Civil War ','01:52:00','T',2016)</v>
       </c>
-      <c r="G38" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F38)</f>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN12','Captain America: Civil War ','01:52:00','T',2016)</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>636</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="E39" s="2">
+      <c r="F39" s="2">
         <v>2016</v>
       </c>
-      <c r="F39" t="str">
-        <f>_xlfn.CONCAT("('",A39,"','",B39,"',",C39,",'",D39,"',",E39,")")</f>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
         <v>('AVEN13','Doctor Strange','01:42:00','T',2016)</v>
       </c>
-      <c r="G39" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F39)</f>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN13','Doctor Strange','01:42:00','T',2016)</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>652</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="I1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3864,11 +4169,2115 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AADC81-4C68-498A-B4F1-F2D123D6EFFA}">
-  <dimension ref="A1:K43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BCAD9C-FDDA-4994-AEE7-82F2E2CCF3A5}">
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C65" si="0">_xlfn.CONCAT("('",A2,"','",B2,"')")</f>
+        <v>('AssuntaRubini','Assunta')</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO UTENTE (",$A$1,",",$B$1,")"," VALUES ",C2)</f>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('AssuntaRubini','Assunta')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>('AssuntaRubini','Maria')</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="1">_xlfn.CONCAT("INSERT INTO UTENTE (",$A$1,",",$B$1,")"," VALUES ",C3)</f>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('AssuntaRubini','Maria')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>('AssuntaRubini','Chiara')</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('AssuntaRubini','Chiara')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>('GiuliaLetiziaNorbiato','Giulia')</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiuliaLetiziaNorbiato','Giulia')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>('EttoreDomenici','Ettore')</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('EttoreDomenici','Ettore')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>('EttoreDomenici','Riccardo')</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('EttoreDomenici','Riccardo')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>('EttoreDomenici','Claudio')</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('EttoreDomenici','Claudio')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>('EttoreDomenici','Giulia')</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('EttoreDomenici','Giulia')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>('EttoreDomenici','Lucia')</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('EttoreDomenici','Lucia')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>('JavisDoparconi','Javis')</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('JavisDoparconi','Javis')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>('JavisDoparconi','Simone')</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('JavisDoparconi','Simone')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>('CarolinaSanzani','Carolina')</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('CarolinaSanzani','Carolina')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>('CarolinaSanzani','Camilla')</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('CarolinaSanzani','Camilla')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>('CarolinaSanzani','Chiara')</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('CarolinaSanzani','Chiara')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>('KevinBizzuti','Simone')</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('KevinBizzuti','Simone')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>('KevinBizzuti','Andrea')</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('KevinBizzuti','Andrea')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>('KevinBizzuti','Riccardo')</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('KevinBizzuti','Riccardo')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>('GiadaBitossi','Giada')</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiadaBitossi','Giada')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>('GiadaBitossi','Lucia')</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiadaBitossi','Lucia')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>('GiadaBitossi','Sofia')</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiadaBitossi','Sofia')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>('GiadaBitossi','Chiara')</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiadaBitossi','Chiara')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>('SigfridoPraxiolu','Sigfrido')</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('SigfridoPraxiolu','Sigfrido')</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>('GyllesBiscaro','Gyless')</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GyllesBiscaro','Gyless')</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>('GyllesBiscaro','Ryan')</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GyllesBiscaro','Ryan')</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>('FrancescoGelmini','Francesco')</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('FrancescoGelmini','Francesco')</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>('FrancescoGelmini','Gianluca')</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('FrancescoGelmini','Gianluca')</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>('FrancescoGelmini','Sofia')</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('FrancescoGelmini','Sofia')</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>370</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>('JuryCotugno','Jury')</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('JuryCotugno','Jury')</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>383</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>('JuryCotugno','Viola')</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('JuryCotugno','Viola')</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>384</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>('ZaraFederici','Zara')</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ZaraFederici','Zara')</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>('ZaraFederici','Margherita')</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ZaraFederici','Margherita')</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>379</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>('ZaraFederici','Sofia')</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ZaraFederici','Sofia')</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>386</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>('NickBelfiori','Nick')</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('NickBelfiori','Nick')</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>378</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>('NickBelfiori','Andrea')</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('NickBelfiori','Andrea')</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>('RyanVincenzi','Ryan')</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('RyanVincenzi','Ryan')</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>387</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>('RyanVincenzi','Marco')</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('RyanVincenzi','Marco')</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>388</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>('XavierDiIacono','Xavier')</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('XavierDiIacono','Xavier')</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>403</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>('XavierDiIacono','Mirko')</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('XavierDiIacono','Mirko')</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>389</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>('PaoloManfredi','Paolo')</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('PaoloManfredi','Paolo')</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>395</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>('PaoloManfredi','Nicola')</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('PaoloManfredi','Nicola')</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>396</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>('PaoloManfredi','Tommaso')</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('PaoloManfredi','Tommaso')</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>391</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>('PaoloManfredi','Michele')</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('PaoloManfredi','Michele')</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>404</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>('PaoloManfredi','Carlo')</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('PaoloManfredi','Carlo')</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>390</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>('FrankZanchi','Frank')</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('FrankZanchi','Frank')</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>391</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>('MicheleTatiani','Michele')</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('MicheleTatiani','Michele')</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>378</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>('MicheleTatiani','Andrea')</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('MicheleTatiani','Andrea')</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>387</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>('MicheleTatiani','Marco')</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('MicheleTatiani','Marco')</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>392</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>('BarbaraNevi','Barbara')</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('BarbaraNevi','Barbara')</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" t="s">
+        <v>394</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>('BarbaraNevi','Elena')</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('BarbaraNevi','Elena')</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" t="s">
+        <v>393</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>('HelenaBoccalupo','Helena')</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('HelenaBoccalupo','Helena')</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>373</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>('RiccardoErrico','Riccardo')</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('RiccardoErrico','Riccardo')</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" t="s">
+        <v>394</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>('ElenaDelia','Elena')</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ElenaDelia','Elena')</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>('ElenaDelia','Chiara')</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ElenaDelia','Chiara')</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>405</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>('ElenaDelia','Mattia')</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ElenaDelia','Mattia')</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>('ElenaRobertaNucibella','Elena')</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ElenaRobertaNucibella','Elena')</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>397</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>('BeatriceNazari','Beatrice')</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('BeatriceNazari','Beatrice')</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>406</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>('BeatriceNazari','Maicol')</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('BeatriceNazari','Maicol')</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>398</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>('ZenoneVega','Zenone')</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ZenoneVega','Zenone')</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" t="s">
+        <v>407</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>('ZenoneVega','Michelle')</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ZenoneVega','Michelle')</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>399</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>('AntoniaRosaMicotti','Antonia')</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('AntoniaRosaMicotti','Antonia')</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>400</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>('DarioAzeglioTabegna','Dario')</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('DarioAzeglioTabegna','Dario')</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>414</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>('DarioAzeglioTabegna','Eugenio')</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('DarioAzeglioTabegna','Eugenio')</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>401</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>('TonyReggio','Tony')</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('TonyReggio','Tony')</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>413</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>('TonyReggio','Dante')</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('TonyReggio','Dante')</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" t="s">
+        <v>402</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C91" si="2">_xlfn.CONCAT("('",A66,"','",B66,"')")</f>
+        <v>('DomenicoMondadori','Domenico')</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('DomenicoMondadori','Domenico')</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" t="s">
+        <v>375</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="2"/>
+        <v>('DomenicoMondadori','Lucia')</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D91" si="3">_xlfn.CONCAT("INSERT INTO UTENTE (",$A$1,",",$B$1,")"," VALUES ",C67)</f>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('DomenicoMondadori','Lucia')</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>376</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="2"/>
+        <v>('DomenicoMondadori','Camilla')</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('DomenicoMondadori','Camilla')</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>379</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="2"/>
+        <v>('DomenicoMondadori','Sofia')</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('DomenicoMondadori','Sofia')</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>375</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="2"/>
+        <v>('LuciaCipoletti','Lucia')</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('LuciaCipoletti','Lucia')</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>389</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="2"/>
+        <v>('LuciaCipoletti','Paolo')</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('LuciaCipoletti','Paolo')</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>415</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="2"/>
+        <v>('LuciaCipoletti','Francesca')</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('LuciaCipoletti','Francesca')</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>382</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="2"/>
+        <v>('LuciaCipoletti','Gianluca')</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('LuciaCipoletti','Gianluca')</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>373</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="2"/>
+        <v>('LuciaCipoletti','Riccardo')</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('LuciaCipoletti','Riccardo')</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>408</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="2"/>
+        <v>('GracePaolaBenvenuti','Grace')</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GracePaolaBenvenuti','Grace')</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>416</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="2"/>
+        <v>('GracePaolaBenvenuti','Morena')</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GracePaolaBenvenuti','Morena')</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>369</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="2"/>
+        <v>('FrancescoCasanova','Francesco')</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('FrancescoCasanova','Francesco')</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>417</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="2"/>
+        <v>('FrancescoCasanova','Oscar')</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('FrancescoCasanova','Oscar')</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>409</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="2"/>
+        <v>('KarolMobili','Karol')</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('KarolMobili','Karol')</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>410</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="2"/>
+        <v>('BrunoAntonioZiomi','Bruno')</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('BrunoAntonioZiomi','Bruno')</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>418</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="2"/>
+        <v>('BrunoAntonioZiomi','Antonio')</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('BrunoAntonioZiomi','Antonio')</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>411</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="2"/>
+        <v>('FlorisRado','Floris')</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('FlorisRado','Floris')</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>412</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="2"/>
+        <v>('GiacomoFrassineti','Giacomo')</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiacomoFrassineti','Giacomo')</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>423</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="2"/>
+        <v>('GiacomoFrassineti','Mario')</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiacomoFrassineti','Mario')</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>372</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="2"/>
+        <v>('GiacomoFrassineti','Chiara')</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiacomoFrassineti','Chiara')</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>419</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="2"/>
+        <v>('OrfeoPioGavotto','Orfeo')</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('OrfeoPioGavotto','Orfeo')</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>420</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="2"/>
+        <v>('GiorgioLeni','Giorgio')</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiorgioLeni','Giorgio')</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>421</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="2"/>
+        <v>('GiorgioLeni','Giorgia')</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiorgioLeni','Giorgia')</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>422</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="2"/>
+        <v>('GiorgioLeni','Lucio')</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiorgioLeni','Lucio')</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>395</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="2"/>
+        <v>('GiorgioLeni','Nicola')</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiorgioLeni','Nicola')</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>423</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="2"/>
+        <v>('GiorgioLeni','Mario')</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiorgioLeni','Mario')</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ED8038-E63A-4EEC-A6A9-8E240DFCF3C7}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F2:F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C39" si="0">_xlfn.CONCAT("('",A2,"','",B2,"')")</f>
+        <v>('AssuntaRubini','assunta12')</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO ACCOUNT (",$A$1,",",$B$1,")"," VALUES ",C2)</f>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('AssuntaRubini','assunta12')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>('GiuliaLetiziaNorbiato','giulia38')</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F40" si="1">_xlfn.CONCAT("INSERT INTO ACCOUNT (",$A$1,",",$B$1,")"," VALUES ",C3)</f>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('GiuliaLetiziaNorbiato','giulia38')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>('EttoreDomenici','ettore71')</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('EttoreDomenici','ettore71')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>('JavisDoparconi','javis69')</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('JavisDoparconi','javis69')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>('CarolinaSanzani','carolina11')</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('CarolinaSanzani','carolina11')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>('KevinBizzuti','kevin66')</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('KevinBizzuti','kevin66')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>('GiadaBitossi','giada42')</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('GiadaBitossi','giada42')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>('SigfridoPraxiolu','sigfrido33')</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('SigfridoPraxiolu','sigfrido33')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>('GyllesBiscaro','gylles88')</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('GyllesBiscaro','gylles88')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>('FrancescoGelmini','francesco73')</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('FrancescoGelmini','francesco73')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>('JuryCotugno','jury06')</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('JuryCotugno','jury06')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>('ZaraFederici','zara24')</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('ZaraFederici','zara24')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>('NickBelfiori','nick36')</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('NickBelfiori','nick36')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>('RyanVincenzi','ryan33')</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('RyanVincenzi','ryan33')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>('XavierDiIacono','xavier56')</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('XavierDiIacono','xavier56')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>('PaoloManfredi','paolo65')</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('PaoloManfredi','paolo65')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>('FrankZanchi','frank03')</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('FrankZanchi','frank03')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>('MicheleTatiani','michele45')</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('MicheleTatiani','michele45')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>('BarbaraNevi','barbara79')</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('BarbaraNevi','barbara79')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>('HelenaBoccalupo','helena68')</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('HelenaBoccalupo','helena68')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>('RiccardoErrico','riccardo09')</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('RiccardoErrico','riccardo09')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>('ElenaDelia','elena02')</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('ElenaDelia','elena02')</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>('ElenaRobertaNucibella','elena38')</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('ElenaRobertaNucibella','elena38')</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>('BeatriceNazari','beatrice29')</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('BeatriceNazari','beatrice29')</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>('ZenoneVega','zenone71')</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('ZenoneVega','zenone71')</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>('AntoniaRosaMicotti','antonia38')</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('AntoniaRosaMicotti','antonia38')</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>('DarioAzeglioTabegna','dario38')</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('DarioAzeglioTabegna','dario38')</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>('TonyReggio','tony01')</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('TonyReggio','tony01')</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>('DomenicoMondadori','domenico47')</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('DomenicoMondadori','domenico47')</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>('LuciaCipoletti','lucia00')</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('LuciaCipoletti','lucia00')</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>('GracePaolaBenvenuti','grace38')</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('GracePaolaBenvenuti','grace38')</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>('FrancescoCasanova','francesco62')</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('FrancescoCasanova','francesco62')</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>('KarolMobili','karol22')</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('KarolMobili','karol22')</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>('BrunoAntonioZiomi','bruno38')</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('BrunoAntonioZiomi','bruno38')</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>('FlorisRado','floris66')</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('FlorisRado','floris66')</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>('GiacomoFrassineti','giacomo73')</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('GiacomoFrassineti','giacomo73')</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>('OrfeoPioGavotto','orfeo38')</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('OrfeoPioGavotto','orfeo38')</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>('GiorgioLeni','giorgio45')</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('GiorgioLeni','giorgio45')</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AADC81-4C68-498A-B4F1-F2D123D6EFFA}">
+  <dimension ref="A1:L43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3877,9 +6286,10 @@
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="108.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>281</v>
       </c>
@@ -3911,7 +6321,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -3946,8 +6356,12 @@
         <f t="shared" ref="K2:K39" si="0">_xlfn.CONCAT("('",A2,"','",B2,"','",C2,"',",D2,",'",E2,"','",F2,"','",G2,"','",H2,"',",I2,",'",J2,"')")</f>
         <v>('RBNSNT03C57A944V','AssuntaRubini','Via Rossi',25,'00118','Roma','Italia','5164 9901 4875 6633',01/01/2024,'005')</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="str">
+        <f>_xlfn.CONCAT("INSERT INTO TITOLARE_ACCOUNT (",$A$1,",",$B$1,K2,")"," VALUES ",C2)</f>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount('RBNSNT03C57A944V','AssuntaRubini','Via Rossi',25,'00118','Roma','Italia','5164 9901 4875 6633',01/01/2024,'005')) VALUES Via Rossi</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>272</v>
       </c>
@@ -3982,8 +6396,12 @@
         <f t="shared" si="0"/>
         <v>('NRBGLT73L64A432S','GiuliaLetiziaNorbiato','Via Verdi',26,'47121','Forlì','Italia','5165 9901 4875 6633',15/11/2024,'564')</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L39" si="1">_xlfn.CONCAT("INSERT INTO TITOLARE_ACCOUNT (",$A$1,",",$B$1,")"," VALUES ",C3)</f>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Verdi</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>271</v>
       </c>
@@ -4018,8 +6436,12 @@
         <f t="shared" si="0"/>
         <v>('HSOTRD72T16C938O','EttoreDomenici','Via Bianchi',27,'20121','Milano','Italia','5166 9901 4875 6633',17/12/2024,'952')</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Bianchi</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>270</v>
       </c>
@@ -4054,8 +6476,12 @@
         <f t="shared" si="0"/>
         <v>('JVSDPC55S48G932U','JavisDoparconi','Via Neri',28,'80121','Napoli','Italia','5167 9901 4875 6633',01/02/2024,'114')</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Neri</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>269</v>
       </c>
@@ -4090,8 +6516,12 @@
         <f t="shared" si="0"/>
         <v>('KPJKSZ33C22B844K','CarolinaSanzani','Viale Colombo',29,'86039','Termoli','Italia','5168 9901 4875 6633',01/03/2024,'559')</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Viale Colombo</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -4126,8 +6556,12 @@
         <f t="shared" si="0"/>
         <v>('BPQKZC66C29B929U','KevinBizzuti','Viale Vespucci',30,'24121','Bergamo','Italia','5169 9901 4875 6633',01/05/2024,'008')</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Viale Vespucci</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>267</v>
       </c>
@@ -4162,8 +6596,12 @@
         <f t="shared" si="0"/>
         <v>('BTSGDD28L68C855Y','GiadaBitossi','Viale Bolognesi',31,'25121','Brescia','Italia','5170 9901 4875 6633',21/03/2024,'987')</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Viale Bolognesi</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>266</v>
       </c>
@@ -4198,8 +6636,12 @@
         <f t="shared" si="0"/>
         <v>('PRXSFR78H29F450W','SigfridoPraxiolu','Viale Roma',32,'10121','Torino','Italia','5171 9901 4875 6633',25/04/2024,'555')</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Viale Roma</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>265</v>
       </c>
@@ -4234,8 +6676,12 @@
         <f t="shared" si="0"/>
         <v>('BSCGYL52S09I417R','GyllesBiscaro','Via Bologna',33,'47521','Cesena','Italia','5172 9901 4875 6633',21/06/2024,'666')</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Bologna</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>264</v>
       </c>
@@ -4270,8 +6716,12 @@
         <f t="shared" si="0"/>
         <v>('GKHFOE66B17F118C','FrancescoGelmini','Via Milano',500,'48121','Ravenna','Italia','5173 1854 4875 6633',01/01/2025,'888')</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Milano</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>258</v>
       </c>
@@ -4306,8 +6756,12 @@
         <f t="shared" si="0"/>
         <v>('CTGJYV99L20L731F','JuryCotugno','Corso Mazzini',501,'47921','Rimini','Italia','5174 9901 4875 6633',10/02/2025,'003')</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Corso Mazzini</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>253</v>
       </c>
@@ -4342,8 +6796,12 @@
         <f t="shared" si="0"/>
         <v>('FIUZFD44T55F558J','ZaraFederici','Via Rossi',502,'47838','Riccione','Italia','5175 9901 4875 6633',01/03/2025,'004')</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Rossi</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>248</v>
       </c>
@@ -4378,8 +6836,12 @@
         <f t="shared" si="0"/>
         <v>('NCKBVF41P25I031C','NickBelfiori','Via Verdi',503,'34121','Trieste','Italia','5176 9901 4875 6633',11/05/2025,'852')</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Verdi</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>241</v>
       </c>
@@ -4414,8 +6876,12 @@
         <f t="shared" si="0"/>
         <v>('ZCPRNV55L24F772X','RyanVincenzi','Via Bianchi',504,'84121','Salerno','Italia','5177 9901 4875 6633',28/01/2025,'856')</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Bianchi</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>234</v>
       </c>
@@ -4450,8 +6916,12 @@
         <f t="shared" si="0"/>
         <v>('DCVXVH78M67B021Z','XavierDiIacono','Via Neri',505,'00118','Roma','Italia','5178 9901 4875 6633',30/02/2025,'748')</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Neri</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>229</v>
       </c>
@@ -4486,8 +6956,12 @@
         <f t="shared" si="0"/>
         <v>('YRMXXR98A54I356V','PaoloManfredi','Viale Colombo',506,'47121','Forlì','Italia','5179 8995 4875 6633',17/04/2025,'985')</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Viale Colombo</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>224</v>
       </c>
@@ -4522,8 +6996,12 @@
         <f t="shared" si="0"/>
         <v>('FKZTXB85L49F925D','FrankZanchi','Viale Vespucci',507,'20121','Milano','Italia','5180 9901 4875 6633',21/05/2025,'123')</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Viale Vespucci</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -4558,8 +7036,12 @@
         <f t="shared" si="0"/>
         <v>('TUAHMT93P58Z312M','MicheleTatiani','Viale Bolognesi',508,'80121','Napoli','Italia','5181 1452 4875 6633',01/06/2025,'456')</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Viale Bolognesi</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>214</v>
       </c>
@@ -4594,8 +7076,12 @@
         <f t="shared" si="0"/>
         <v>('NVXKBQ88M21B009G','BarbaraNevi','Viale Roma',509,'86039','Termoli','Italia','5182 9901 4875 6633',18/08/2025,'789')</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Viale Roma</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>209</v>
       </c>
@@ -4630,8 +7116,12 @@
         <f t="shared" si="0"/>
         <v>('HSTBPU50B09H527Q','HelenaBoccalupo','Via Bologna',510,'24121','Bergamo','Italia','5183 9901 4875 6633',01/11/2025,'987')</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Bologna</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>205</v>
       </c>
@@ -4666,8 +7156,12 @@
         <f t="shared" si="0"/>
         <v>('RRCTCB54D28G282U','RiccardoErrico','Via Emilia',511,'25121','Brescia','Italia','5184 1234 4875 6633',01/04/2025,'654')</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Emilia</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -4702,8 +7196,12 @@
         <f t="shared" si="0"/>
         <v>('PGWLDL32B57H839L','ElenaDelia','Via Liguria',512,'10121','Torino','Italia','5185 9901 4875 6633',28/01/2026,'321')</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Liguria</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -4738,8 +7236,12 @@
         <f t="shared" si="0"/>
         <v>('NCBLRB66L62F989D','ElenaRobertaNucibella','Via Calabria',47,'00118','Roma','Italia','5186 9901 4875 6633',30/04/2026,'620')</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Calabria</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>191</v>
       </c>
@@ -4774,8 +7276,12 @@
         <f t="shared" si="0"/>
         <v>('NHZBFE57P18D945W','BeatriceNazari','Via Sicilia',48,'47121','Forlì','Italia','5187 9901 4875 6633',15/01/2026,'321')</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Sicilia</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>186</v>
       </c>
@@ -4810,8 +7316,12 @@
         <f t="shared" si="0"/>
         <v>('VGEZNN91S21G597I','ZenoneVega','Corso Mazzini',49,'20121','Milano','Italia','5188 4567 4875 6633',01/06/2026,'148')</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Corso Mazzini</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>178</v>
       </c>
@@ -4846,8 +7356,12 @@
         <f t="shared" si="0"/>
         <v>('MCTNNR43A41L873P','AntoniaRosaMicotti','Via Emilia',120,'80121','Napoli','Italia','5189 9901 4875 6633',07/01/2026,'452')</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Emilia</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>170</v>
       </c>
@@ -4882,8 +7396,12 @@
         <f t="shared" si="0"/>
         <v>('TBGDZG82D15I217F','DarioAzeglioTabegna','Via Liguria',51,'86039','Termoli','Italia','5190 9901 4875 6633',10/10/2026,'607')</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Liguria</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -4918,8 +7436,12 @@
         <f t="shared" si="0"/>
         <v>('RGGTKN91P30B234G','TonyReggio','Via Calabria',52,'24121','Bergamo','Italia','5191 1478 4875 6633',11/11/2026,'119')</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Calabria</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>156</v>
       </c>
@@ -4954,8 +7476,12 @@
         <f t="shared" si="0"/>
         <v>('MWVDHC53P04E830X','DomenicoMondadori','Via Sicilia',53,'25121','Brescia','Italia','5192 9901 4875 6633',12/12/2026,'417')</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Sicilia</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -4990,8 +7516,12 @@
         <f t="shared" si="0"/>
         <v>('CPHLQW59M13I438H','LuciaCipoletti','Via Rossi',25,'00118','Roma','Italia','5164 9901 4875 6633',01/01/2024,'005')</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Rossi</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -5026,8 +7556,12 @@
         <f t="shared" si="0"/>
         <v>('BXVGCP44T56E232T','GracePaolaBenvenuti','Via Verdi',26,'47121','Forlì','Italia','5165 9901 4875 6633',15/11/2024,'564')</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Verdi</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>134</v>
       </c>
@@ -5062,8 +7596,12 @@
         <f t="shared" si="0"/>
         <v>('CSNFGC47A44L968W','FrancescoCasanova','Via Bianchi',27,'24121','Bergamo','Italia','5166 9901 4875 6633',17/12/2024,'952')</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Bianchi</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -5098,8 +7636,12 @@
         <f t="shared" si="0"/>
         <v>('MBCKGK55E16E159C','KarolMobili','Via Neri',28,'25121','Brescia','Italia','5167 9901 4875 6633',01/02/2024,'114')</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Neri</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -5134,8 +7676,12 @@
         <f t="shared" si="0"/>
         <v>('ZMIBNN27R06F473V','BrunoAntonioZiomi','Viale Colombo',29,'10121','Torino','Italia','5168 9901 4875 6633',01/03/2024,'559')</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Viale Colombo</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -5170,8 +7716,12 @@
         <f t="shared" si="0"/>
         <v>('RDAFRS70D07L937G','FlorisRado','Viale Vespucci',30,'47521','Cesena','Italia','5169 9901 4875 6633',01/05/2024,'008')</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Viale Vespucci</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -5206,8 +7756,12 @@
         <f t="shared" si="0"/>
         <v>('FKVYNQ63A48C340T','GiacomoFrassineti','Viale Bolognesi',31,'48121','Ravenna','Italia','5170 9901 4875 6633',21/03/2024,'987')</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Viale Bolognesi</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -5242,8 +7796,12 @@
         <f t="shared" si="0"/>
         <v>('GVTRFP86A09G800M','OrfeoPioGavotto','Viale Roma',32,'47921','Rimini','Italia','5171 9901 4875 6633',25/04/2024,'555')</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Viale Roma</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -5278,20 +7836,24 @@
         <f t="shared" si="0"/>
         <v>('XMTGYM89L10B905G','GiorgioLeni','Via Bologna',33,'47838','Riccione','Italia','5172 9901 4875 6633',21/06/2024,'666')</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO TITOLARE_ACCOUNT (CF,nomeAccount) VALUES Via Bologna</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
@@ -5301,7 +7863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AE3761-F32A-426D-A3B2-9332843C89F6}">
   <dimension ref="A1:D56"/>
   <sheetViews>
@@ -6156,12 +8718,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2354E1D2-7462-4BD6-8229-76D3E447F063}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6714,6 +9276,803 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65FB95C-249D-46F1-81DC-4CF103DC0D6A}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E1" t="s">
+        <v>728</v>
+      </c>
+      <c r="F1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C4" t="s">
+        <v>737</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C5" t="s">
+        <v>771</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B6" t="s">
+        <v>775</v>
+      </c>
+      <c r="C6" t="s">
+        <v>773</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B7" t="s">
+        <v>776</v>
+      </c>
+      <c r="C7" t="s">
+        <v>774</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>777</v>
+      </c>
+      <c r="B8" t="s">
+        <v>800</v>
+      </c>
+      <c r="C8" t="s">
+        <v>797</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B9" t="s">
+        <v>801</v>
+      </c>
+      <c r="C9" t="s">
+        <v>798</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>779</v>
+      </c>
+      <c r="B10" t="s">
+        <v>802</v>
+      </c>
+      <c r="C10" t="s">
+        <v>799</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>780</v>
+      </c>
+      <c r="B11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" t="s">
+        <v>808</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>781</v>
+      </c>
+      <c r="B12" t="s">
+        <v>811</v>
+      </c>
+      <c r="C12" t="s">
+        <v>809</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>782</v>
+      </c>
+      <c r="B13" t="s">
+        <v>812</v>
+      </c>
+      <c r="C13" t="s">
+        <v>810</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>783</v>
+      </c>
+      <c r="B14" t="s">
+        <v>816</v>
+      </c>
+      <c r="F14" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>784</v>
+      </c>
+      <c r="B15" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>785</v>
+      </c>
+      <c r="B16" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>732</v>
+      </c>
+      <c r="B18" t="s">
+        <v>750</v>
+      </c>
+      <c r="C18" t="s">
+        <v>744</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>739</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C19" t="s">
+        <v>745</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>740</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C20" t="s">
+        <v>746</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>741</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C21" t="s">
+        <v>747</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>742</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C22" t="s">
+        <v>748</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>743</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C23" t="s">
+        <v>749</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>758</v>
+      </c>
+      <c r="B24" t="s">
+        <v>762</v>
+      </c>
+      <c r="C24" t="s">
+        <v>760</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>759</v>
+      </c>
+      <c r="B25" t="s">
+        <v>763</v>
+      </c>
+      <c r="C25" t="s">
+        <v>761</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>767</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C26" t="s">
+        <v>766</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>788</v>
+      </c>
+      <c r="B27" t="s">
+        <v>792</v>
+      </c>
+      <c r="C27" t="s">
+        <v>793</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>789</v>
+      </c>
+      <c r="B28" t="s">
+        <v>790</v>
+      </c>
+      <c r="C28" t="s">
+        <v>791</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>804</v>
+      </c>
+      <c r="B29" t="s">
+        <v>792</v>
+      </c>
+      <c r="C29" t="s">
+        <v>745</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>815</v>
+      </c>
+      <c r="B30" t="s">
+        <v>813</v>
+      </c>
+      <c r="C30" t="s">
+        <v>814</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" tooltip="John C. Reilly" display="https://it.wikipedia.org/wiki/John_C._Reilly" xr:uid="{3973D584-3424-4489-9077-1F9DE06CD1DE}"/>
+    <hyperlink ref="B6" r:id="rId2" tooltip="Sarah Silverman" display="https://it.wikipedia.org/wiki/Sarah_Silverman" xr:uid="{CF37A940-646B-47E1-AED1-968881DDF45E}"/>
+    <hyperlink ref="B7" r:id="rId3" tooltip="Jack McBrayer" display="https://it.wikipedia.org/wiki/Jack_McBrayer" xr:uid="{DBA82F22-36AF-4030-924A-D763E9E7D93D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291090D6-CAF3-4CB8-B4C5-6D2A70185058}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>757</v>
+      </c>
+      <c r="B4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B5" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>777</v>
+      </c>
+      <c r="B8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B9" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>779</v>
+      </c>
+      <c r="B10" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>780</v>
+      </c>
+      <c r="B11" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>781</v>
+      </c>
+      <c r="B12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>782</v>
+      </c>
+      <c r="B13" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>732</v>
+      </c>
+      <c r="B19" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>739</v>
+      </c>
+      <c r="B20" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>740</v>
+      </c>
+      <c r="B21" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>740</v>
+      </c>
+      <c r="B22" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>741</v>
+      </c>
+      <c r="B23" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>741</v>
+      </c>
+      <c r="B24" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>742</v>
+      </c>
+      <c r="B25" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>743</v>
+      </c>
+      <c r="B26" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>758</v>
+      </c>
+      <c r="B27" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>759</v>
+      </c>
+      <c r="B28" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>767</v>
+      </c>
+      <c r="B29" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>788</v>
+      </c>
+      <c r="B30" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>789</v>
+      </c>
+      <c r="B31" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>804</v>
+      </c>
+      <c r="B32" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>759</v>
+      </c>
+      <c r="B33" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>815</v>
+      </c>
+      <c r="B34" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>767</v>
+      </c>
+      <c r="B35" t="s">
+        <v>689</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8482F060-558D-45F1-BE3C-45A174389DD4}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -6822,11 +10181,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC505CEB-BB95-4900-BE15-4023EC3EF945}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>
@@ -6848,12 +10207,12 @@
         <v>693</v>
       </c>
       <c r="C2" t="str">
-        <f>_xlfn.CONCAT("('",A2,"','",B2,")")</f>
-        <v>('WDP','DIS1)</v>
+        <f>_xlfn.CONCAT("('",A2,"','",B2,"')")</f>
+        <v>('WDP','DIS1')</v>
       </c>
       <c r="D2" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C2)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS1)</v>
+        <f t="shared" ref="D2:D39" si="0">_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C2)</f>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS1')</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -6864,12 +10223,12 @@
         <v>692</v>
       </c>
       <c r="C3" t="str">
-        <f>_xlfn.CONCAT("('",A3,"','",B3,")")</f>
-        <v>('WDP','DIS2)</v>
+        <f t="shared" ref="C3:C39" si="1">_xlfn.CONCAT("('",A3,"','",B3,"')")</f>
+        <v>('WDP','DIS2')</v>
       </c>
       <c r="D3" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C3)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS2)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS2')</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -6880,12 +10239,12 @@
         <v>691</v>
       </c>
       <c r="C4" t="str">
-        <f>_xlfn.CONCAT("('",A4,"','",B4,")")</f>
-        <v>('WDP','DIS3)</v>
+        <f t="shared" si="1"/>
+        <v>('WDP','DIS3')</v>
       </c>
       <c r="D4" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C4)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS3)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS3')</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -6896,12 +10255,12 @@
         <v>690</v>
       </c>
       <c r="C5" t="str">
-        <f>_xlfn.CONCAT("('",A5,"','",B5,")")</f>
-        <v>('WDP','DIS4)</v>
+        <f t="shared" si="1"/>
+        <v>('WDP','DIS4')</v>
       </c>
       <c r="D5" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C5)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS4)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS4')</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -6912,12 +10271,12 @@
         <v>689</v>
       </c>
       <c r="C6" t="str">
-        <f>_xlfn.CONCAT("('",A6,"','",B6,")")</f>
-        <v>('WDP','DIS5)</v>
+        <f t="shared" si="1"/>
+        <v>('WDP','DIS5')</v>
       </c>
       <c r="D6" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C6)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS5)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS5')</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -6928,12 +10287,12 @@
         <v>688</v>
       </c>
       <c r="C7" t="str">
-        <f>_xlfn.CONCAT("('",A7,"','",B7,")")</f>
-        <v>('WDP','DIS6)</v>
+        <f t="shared" si="1"/>
+        <v>('WDP','DIS6')</v>
       </c>
       <c r="D7" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C7)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS6)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS6')</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -6944,12 +10303,12 @@
         <v>687</v>
       </c>
       <c r="C8" t="str">
-        <f>_xlfn.CONCAT("('",A8,"','",B8,")")</f>
-        <v>('WDP','DIS7)</v>
+        <f t="shared" si="1"/>
+        <v>('WDP','DIS7')</v>
       </c>
       <c r="D8" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C8)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS7)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS7')</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -6960,12 +10319,12 @@
         <v>686</v>
       </c>
       <c r="C9" t="str">
-        <f>_xlfn.CONCAT("('",A9,"','",B9,")")</f>
-        <v>('WDP','DIS8)</v>
+        <f t="shared" si="1"/>
+        <v>('WDP','DIS8')</v>
       </c>
       <c r="D9" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C9)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS8)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WDP','DIS8')</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -6976,12 +10335,12 @@
         <v>500</v>
       </c>
       <c r="C10" t="str">
-        <f>_xlfn.CONCAT("('",A10,"','",B10,")")</f>
-        <v>('WB','WARN1)</v>
+        <f t="shared" si="1"/>
+        <v>('WB','WARN1')</v>
       </c>
       <c r="D10" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C10)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN1)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN1')</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -6992,12 +10351,12 @@
         <v>501</v>
       </c>
       <c r="C11" t="str">
-        <f>_xlfn.CONCAT("('",A11,"','",B11,")")</f>
-        <v>('WB','WARN2)</v>
+        <f t="shared" si="1"/>
+        <v>('WB','WARN2')</v>
       </c>
       <c r="D11" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C11)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN2)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN2')</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -7008,12 +10367,12 @@
         <v>502</v>
       </c>
       <c r="C12" t="str">
-        <f>_xlfn.CONCAT("('",A12,"','",B12,")")</f>
-        <v>('WB','WARN3)</v>
+        <f t="shared" si="1"/>
+        <v>('WB','WARN3')</v>
       </c>
       <c r="D12" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C12)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN3)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN3')</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -7024,12 +10383,12 @@
         <v>503</v>
       </c>
       <c r="C13" t="str">
-        <f>_xlfn.CONCAT("('",A13,"','",B13,")")</f>
-        <v>('WB','WARN4)</v>
+        <f t="shared" si="1"/>
+        <v>('WB','WARN4')</v>
       </c>
       <c r="D13" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C13)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN4)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN4')</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7040,12 +10399,12 @@
         <v>504</v>
       </c>
       <c r="C14" t="str">
-        <f>_xlfn.CONCAT("('",A14,"','",B14,")")</f>
-        <v>('WB','WARN5)</v>
+        <f t="shared" si="1"/>
+        <v>('WB','WARN5')</v>
       </c>
       <c r="D14" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C14)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN5)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN5')</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -7056,12 +10415,12 @@
         <v>505</v>
       </c>
       <c r="C15" t="str">
-        <f>_xlfn.CONCAT("('",A15,"','",B15,")")</f>
-        <v>('WB','WARN6)</v>
+        <f t="shared" si="1"/>
+        <v>('WB','WARN6')</v>
       </c>
       <c r="D15" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C15)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN6)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN6')</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -7072,12 +10431,12 @@
         <v>506</v>
       </c>
       <c r="C16" t="str">
-        <f>_xlfn.CONCAT("('",A16,"','",B16,")")</f>
-        <v>('WB','WARN7)</v>
+        <f t="shared" si="1"/>
+        <v>('WB','WARN7')</v>
       </c>
       <c r="D16" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C16)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN7)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN7')</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -7088,12 +10447,12 @@
         <v>507</v>
       </c>
       <c r="C17" t="str">
-        <f>_xlfn.CONCAT("('",A17,"','",B17,")")</f>
-        <v>('WB','WARN8)</v>
+        <f t="shared" si="1"/>
+        <v>('WB','WARN8')</v>
       </c>
       <c r="D17" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C17)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN8)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('WB','WARN8')</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -7104,12 +10463,12 @@
         <v>560</v>
       </c>
       <c r="C18" t="str">
-        <f>_xlfn.CONCAT("('",A18,"','",B18,")")</f>
-        <v>('PARP','HOR1)</v>
+        <f t="shared" si="1"/>
+        <v>('PARP','HOR1')</v>
       </c>
       <c r="D18" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C18)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('PARP','HOR1)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('PARP','HOR1')</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -7120,12 +10479,12 @@
         <v>561</v>
       </c>
       <c r="C19" t="str">
-        <f>_xlfn.CONCAT("('",A19,"','",B19,")")</f>
-        <v>('PARP','HOR2)</v>
+        <f t="shared" si="1"/>
+        <v>('PARP','HOR2')</v>
       </c>
       <c r="D19" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C19)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('PARP','HOR2)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('PARP','HOR2')</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -7136,12 +10495,12 @@
         <v>562</v>
       </c>
       <c r="C20" t="str">
-        <f>_xlfn.CONCAT("('",A20,"','",B20,")")</f>
-        <v>('PARP','HOR3)</v>
+        <f t="shared" si="1"/>
+        <v>('PARP','HOR3')</v>
       </c>
       <c r="D20" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C20)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('PARP','HOR3)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('PARP','HOR3')</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -7152,12 +10511,12 @@
         <v>563</v>
       </c>
       <c r="C21" t="str">
-        <f>_xlfn.CONCAT("('",A21,"','",B21,")")</f>
-        <v>('PARP','HOR4)</v>
+        <f t="shared" si="1"/>
+        <v>('PARP','HOR4')</v>
       </c>
       <c r="D21" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C21)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('PARP','HOR4)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('PARP','HOR4')</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7168,12 +10527,12 @@
         <v>564</v>
       </c>
       <c r="C22" t="str">
-        <f>_xlfn.CONCAT("('",A22,"','",B22,")")</f>
-        <v>('PARP','HOR5)</v>
+        <f t="shared" si="1"/>
+        <v>('PARP','HOR5')</v>
       </c>
       <c r="D22" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C22)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('PARP','HOR5)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('PARP','HOR5')</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -7184,12 +10543,12 @@
         <v>565</v>
       </c>
       <c r="C23" t="str">
-        <f>_xlfn.CONCAT("('",A23,"','",B23,")")</f>
-        <v>('PARP','HOR6)</v>
+        <f t="shared" si="1"/>
+        <v>('PARP','HOR6')</v>
       </c>
       <c r="D23" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C23)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('PARP','HOR6)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('PARP','HOR6')</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -7200,12 +10559,12 @@
         <v>583</v>
       </c>
       <c r="C24" t="str">
-        <f>_xlfn.CONCAT("('",A24,"','",B24,")")</f>
-        <v>('TEMPHE','TWIL1)</v>
+        <f t="shared" si="1"/>
+        <v>('TEMPHE','TWIL1')</v>
       </c>
       <c r="D24" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C24)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('TEMPHE','TWIL1)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('TEMPHE','TWIL1')</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -7216,12 +10575,12 @@
         <v>584</v>
       </c>
       <c r="C25" t="str">
-        <f>_xlfn.CONCAT("('",A25,"','",B25,")")</f>
-        <v>('TEMPHE','TWIL2)</v>
+        <f t="shared" si="1"/>
+        <v>('TEMPHE','TWIL2')</v>
       </c>
       <c r="D25" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C25)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('TEMPHE','TWIL2)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('TEMPHE','TWIL2')</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -7232,12 +10591,12 @@
         <v>585</v>
       </c>
       <c r="C26" t="str">
-        <f>_xlfn.CONCAT("('",A26,"','",B26,")")</f>
-        <v>('TEMPHE','TWIL3)</v>
+        <f t="shared" si="1"/>
+        <v>('TEMPHE','TWIL3')</v>
       </c>
       <c r="D26" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C26)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('TEMPHE','TWIL3)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('TEMPHE','TWIL3')</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -7248,12 +10607,12 @@
         <v>624</v>
       </c>
       <c r="C27" t="str">
-        <f>_xlfn.CONCAT("('",A27,"','",B27,")")</f>
-        <v>('MARVST','AVEN1)</v>
+        <f t="shared" si="1"/>
+        <v>('MARVST','AVEN1')</v>
       </c>
       <c r="D27" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C27)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN1)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN1')</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -7264,12 +10623,12 @@
         <v>625</v>
       </c>
       <c r="C28" t="str">
-        <f>_xlfn.CONCAT("('",A28,"','",B28,")")</f>
-        <v>('MARVST','AVEN2)</v>
+        <f t="shared" si="1"/>
+        <v>('MARVST','AVEN2')</v>
       </c>
       <c r="D28" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C28)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN2)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN2')</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -7280,12 +10639,12 @@
         <v>626</v>
       </c>
       <c r="C29" t="str">
-        <f>_xlfn.CONCAT("('",A29,"','",B29,")")</f>
-        <v>('MARVST','AVEN3)</v>
+        <f t="shared" si="1"/>
+        <v>('MARVST','AVEN3')</v>
       </c>
       <c r="D29" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C29)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN3)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN3')</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -7296,12 +10655,12 @@
         <v>627</v>
       </c>
       <c r="C30" t="str">
-        <f>_xlfn.CONCAT("('",A30,"','",B30,")")</f>
-        <v>('MARVST','AVEN4)</v>
+        <f t="shared" si="1"/>
+        <v>('MARVST','AVEN4')</v>
       </c>
       <c r="D30" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C30)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN4)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN4')</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -7312,12 +10671,12 @@
         <v>628</v>
       </c>
       <c r="C31" t="str">
-        <f>_xlfn.CONCAT("('",A31,"','",B31,")")</f>
-        <v>('MARVST','AVEN5)</v>
+        <f t="shared" si="1"/>
+        <v>('MARVST','AVEN5')</v>
       </c>
       <c r="D31" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C31)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN5)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN5')</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -7328,12 +10687,12 @@
         <v>629</v>
       </c>
       <c r="C32" t="str">
-        <f>_xlfn.CONCAT("('",A32,"','",B32,")")</f>
-        <v>('MARVST','AVEN6)</v>
+        <f t="shared" si="1"/>
+        <v>('MARVST','AVEN6')</v>
       </c>
       <c r="D32" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C32)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN6)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN6')</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -7344,12 +10703,12 @@
         <v>630</v>
       </c>
       <c r="C33" t="str">
-        <f>_xlfn.CONCAT("('",A33,"','",B33,")")</f>
-        <v>('MARVST','AVEN7)</v>
+        <f t="shared" si="1"/>
+        <v>('MARVST','AVEN7')</v>
       </c>
       <c r="D33" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C33)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN7)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN7')</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -7360,12 +10719,12 @@
         <v>631</v>
       </c>
       <c r="C34" t="str">
-        <f>_xlfn.CONCAT("('",A34,"','",B34,")")</f>
-        <v>('MARVST','AVEN8)</v>
+        <f t="shared" si="1"/>
+        <v>('MARVST','AVEN8')</v>
       </c>
       <c r="D34" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C34)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN8)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN8')</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -7376,12 +10735,12 @@
         <v>632</v>
       </c>
       <c r="C35" t="str">
-        <f>_xlfn.CONCAT("('",A35,"','",B35,")")</f>
-        <v>('MARVST','AVEN9)</v>
+        <f t="shared" si="1"/>
+        <v>('MARVST','AVEN9')</v>
       </c>
       <c r="D35" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C35)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN9)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN9')</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -7392,12 +10751,12 @@
         <v>633</v>
       </c>
       <c r="C36" t="str">
-        <f>_xlfn.CONCAT("('",A36,"','",B36,")")</f>
-        <v>('MARVST','AVEN10)</v>
+        <f t="shared" si="1"/>
+        <v>('MARVST','AVEN10')</v>
       </c>
       <c r="D36" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C36)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN10)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN10')</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -7408,12 +10767,12 @@
         <v>634</v>
       </c>
       <c r="C37" t="str">
-        <f>_xlfn.CONCAT("('",A37,"','",B37,")")</f>
-        <v>('MARVST','AVEN11)</v>
+        <f t="shared" si="1"/>
+        <v>('MARVST','AVEN11')</v>
       </c>
       <c r="D37" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C37)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN11)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN11')</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -7424,12 +10783,12 @@
         <v>635</v>
       </c>
       <c r="C38" t="str">
-        <f>_xlfn.CONCAT("('",A38,"','",B38,")")</f>
-        <v>('MARVST','AVEN12)</v>
+        <f t="shared" si="1"/>
+        <v>('MARVST','AVEN12')</v>
       </c>
       <c r="D38" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C38)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN12)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN12')</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -7440,12 +10799,12 @@
         <v>636</v>
       </c>
       <c r="C39" t="str">
-        <f>_xlfn.CONCAT("('",A39,"','",B39,")")</f>
-        <v>('MARVST','AVEN13)</v>
+        <f t="shared" si="1"/>
+        <v>('MARVST','AVEN13')</v>
       </c>
       <c r="D39" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO produrre_film (",$A$1,",",$B$1,") VALUES ",C39)</f>
-        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN13)</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO produrre_film (codCasaProduttrice,codFilm) VALUES ('MARVST','AVEN13')</v>
       </c>
     </row>
   </sheetData>
@@ -7453,11 +10812,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CCAD7B-31A3-4FDE-8696-FF8AB4228FAB}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="D80" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -9376,7 +12735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40386D9D-73BC-4753-BF5C-03741CC5011A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -9565,7 +12924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18778E1-8344-43F7-9C5F-8FA0C53D3424}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9579,7 +12938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DCE35F-892B-4006-94AA-E3EC4CCF8594}">
   <dimension ref="A1:N91"/>
   <sheetViews>
@@ -12342,1956 +15701,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BCAD9C-FDDA-4994-AEE7-82F2E2CCF3A5}">
-  <dimension ref="A1:D91"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C65" si="0">_xlfn.CONCAT("('",A2,"','",B2,"')")</f>
-        <v>('AssuntaRubini','Assunta')</v>
-      </c>
-      <c r="D2" t="str">
-        <f>_xlfn.CONCAT("INSERT INTO UTENTE (",$A$1,",",$B$1,")"," VALUES ",C2)</f>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('AssuntaRubini','Assunta')</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>('AssuntaRubini','Maria')</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="1">_xlfn.CONCAT("INSERT INTO UTENTE (",$A$1,",",$B$1,")"," VALUES ",C3)</f>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('AssuntaRubini','Maria')</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>('AssuntaRubini','Chiara')</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('AssuntaRubini','Chiara')</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>('GiuliaLetiziaNorbiato','Giulia')</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiuliaLetiziaNorbiato','Giulia')</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>('EttoreDomenici','Ettore')</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('EttoreDomenici','Ettore')</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>('EttoreDomenici','Riccardo')</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('EttoreDomenici','Riccardo')</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>('EttoreDomenici','Claudio')</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('EttoreDomenici','Claudio')</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>('EttoreDomenici','Giulia')</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('EttoreDomenici','Giulia')</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>('EttoreDomenici','Lucia')</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('EttoreDomenici','Lucia')</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>('JavisDoparconi','Javis')</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('JavisDoparconi','Javis')</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>377</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>('JavisDoparconi','Simone')</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('JavisDoparconi','Simone')</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>('CarolinaSanzani','Carolina')</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('CarolinaSanzani','Carolina')</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" t="s">
-        <v>376</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>('CarolinaSanzani','Camilla')</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('CarolinaSanzani','Camilla')</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>372</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>('CarolinaSanzani','Chiara')</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('CarolinaSanzani','Chiara')</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>377</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>('KevinBizzuti','Simone')</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('KevinBizzuti','Simone')</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" t="s">
-        <v>378</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>('KevinBizzuti','Andrea')</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('KevinBizzuti','Andrea')</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" t="s">
-        <v>373</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>('KevinBizzuti','Riccardo')</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('KevinBizzuti','Riccardo')</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>367</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>('GiadaBitossi','Giada')</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiadaBitossi','Giada')</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>375</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>('GiadaBitossi','Lucia')</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiadaBitossi','Lucia')</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>379</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>('GiadaBitossi','Sofia')</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiadaBitossi','Sofia')</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>372</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>('GiadaBitossi','Chiara')</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiadaBitossi','Chiara')</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>368</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>('SigfridoPraxiolu','Sigfrido')</v>
-      </c>
-      <c r="D23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('SigfridoPraxiolu','Sigfrido')</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>380</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>('GyllesBiscaro','Gyless')</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GyllesBiscaro','Gyless')</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>381</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>('GyllesBiscaro','Ryan')</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GyllesBiscaro','Ryan')</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>369</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>('FrancescoGelmini','Francesco')</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('FrancescoGelmini','Francesco')</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>('FrancescoGelmini','Gianluca')</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('FrancescoGelmini','Gianluca')</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>379</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>('FrancescoGelmini','Sofia')</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('FrancescoGelmini','Sofia')</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>370</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>('JuryCotugno','Jury')</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('JuryCotugno','Jury')</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
-        <v>383</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>('JuryCotugno','Viola')</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('JuryCotugno','Viola')</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>384</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>('ZaraFederici','Zara')</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ZaraFederici','Zara')</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>385</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>('ZaraFederici','Margherita')</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ZaraFederici','Margherita')</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" t="s">
-        <v>379</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>('ZaraFederici','Sofia')</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ZaraFederici','Sofia')</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="s">
-        <v>386</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>('NickBelfiori','Nick')</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('NickBelfiori','Nick')</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>378</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>('NickBelfiori','Andrea')</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('NickBelfiori','Andrea')</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" t="s">
-        <v>381</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>('RyanVincenzi','Ryan')</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('RyanVincenzi','Ryan')</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>387</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>('RyanVincenzi','Marco')</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('RyanVincenzi','Marco')</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" t="s">
-        <v>388</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>('XavierDiIacono','Xavier')</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('XavierDiIacono','Xavier')</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" t="s">
-        <v>403</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>('XavierDiIacono','Mirko')</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('XavierDiIacono','Mirko')</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>389</v>
-      </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>('PaoloManfredi','Paolo')</v>
-      </c>
-      <c r="D40" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('PaoloManfredi','Paolo')</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
-        <v>395</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>('PaoloManfredi','Nicola')</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('PaoloManfredi','Nicola')</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="s">
-        <v>396</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>('PaoloManfredi','Tommaso')</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('PaoloManfredi','Tommaso')</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
-        <v>391</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>('PaoloManfredi','Michele')</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('PaoloManfredi','Michele')</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>404</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>('PaoloManfredi','Carlo')</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('PaoloManfredi','Carlo')</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>390</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>('FrankZanchi','Frank')</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('FrankZanchi','Frank')</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" t="s">
-        <v>391</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>('MicheleTatiani','Michele')</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('MicheleTatiani','Michele')</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" t="s">
-        <v>378</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>('MicheleTatiani','Andrea')</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('MicheleTatiani','Andrea')</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" t="s">
-        <v>387</v>
-      </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>('MicheleTatiani','Marco')</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('MicheleTatiani','Marco')</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" t="s">
-        <v>392</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>('BarbaraNevi','Barbara')</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('BarbaraNevi','Barbara')</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" t="s">
-        <v>394</v>
-      </c>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>('BarbaraNevi','Elena')</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('BarbaraNevi','Elena')</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" t="s">
-        <v>393</v>
-      </c>
-      <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>('HelenaBoccalupo','Helena')</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('HelenaBoccalupo','Helena')</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" t="s">
-        <v>373</v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>('RiccardoErrico','Riccardo')</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('RiccardoErrico','Riccardo')</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" t="s">
-        <v>394</v>
-      </c>
-      <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v>('ElenaDelia','Elena')</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ElenaDelia','Elena')</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" t="s">
-        <v>372</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v>('ElenaDelia','Chiara')</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ElenaDelia','Chiara')</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" t="s">
-        <v>405</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v>('ElenaDelia','Mattia')</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ElenaDelia','Mattia')</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" t="s">
-        <v>394</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v>('ElenaRobertaNucibella','Elena')</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ElenaRobertaNucibella','Elena')</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" t="s">
-        <v>397</v>
-      </c>
-      <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v>('BeatriceNazari','Beatrice')</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('BeatriceNazari','Beatrice')</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" t="s">
-        <v>406</v>
-      </c>
-      <c r="C58" t="str">
-        <f t="shared" si="0"/>
-        <v>('BeatriceNazari','Maicol')</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('BeatriceNazari','Maicol')</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" t="s">
-        <v>398</v>
-      </c>
-      <c r="C59" t="str">
-        <f t="shared" si="0"/>
-        <v>('ZenoneVega','Zenone')</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ZenoneVega','Zenone')</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" t="s">
-        <v>407</v>
-      </c>
-      <c r="C60" t="str">
-        <f t="shared" si="0"/>
-        <v>('ZenoneVega','Michelle')</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('ZenoneVega','Michelle')</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" t="s">
-        <v>399</v>
-      </c>
-      <c r="C61" t="str">
-        <f t="shared" si="0"/>
-        <v>('AntoniaRosaMicotti','Antonia')</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('AntoniaRosaMicotti','Antonia')</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" t="s">
-        <v>400</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v>('DarioAzeglioTabegna','Dario')</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('DarioAzeglioTabegna','Dario')</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" t="s">
-        <v>414</v>
-      </c>
-      <c r="C63" t="str">
-        <f t="shared" si="0"/>
-        <v>('DarioAzeglioTabegna','Eugenio')</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('DarioAzeglioTabegna','Eugenio')</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" t="s">
-        <v>401</v>
-      </c>
-      <c r="C64" t="str">
-        <f t="shared" si="0"/>
-        <v>('TonyReggio','Tony')</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('TonyReggio','Tony')</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" t="s">
-        <v>413</v>
-      </c>
-      <c r="C65" t="str">
-        <f t="shared" si="0"/>
-        <v>('TonyReggio','Dante')</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('TonyReggio','Dante')</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66" t="s">
-        <v>402</v>
-      </c>
-      <c r="C66" t="str">
-        <f t="shared" ref="C66:C91" si="2">_xlfn.CONCAT("('",A66,"','",B66,"')")</f>
-        <v>('DomenicoMondadori','Domenico')</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('DomenicoMondadori','Domenico')</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" t="s">
-        <v>375</v>
-      </c>
-      <c r="C67" t="str">
-        <f t="shared" si="2"/>
-        <v>('DomenicoMondadori','Lucia')</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D91" si="3">_xlfn.CONCAT("INSERT INTO UTENTE (",$A$1,",",$B$1,")"," VALUES ",C67)</f>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('DomenicoMondadori','Lucia')</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" t="s">
-        <v>376</v>
-      </c>
-      <c r="C68" t="str">
-        <f t="shared" si="2"/>
-        <v>('DomenicoMondadori','Camilla')</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('DomenicoMondadori','Camilla')</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" t="s">
-        <v>379</v>
-      </c>
-      <c r="C69" t="str">
-        <f t="shared" si="2"/>
-        <v>('DomenicoMondadori','Sofia')</v>
-      </c>
-      <c r="D69" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('DomenicoMondadori','Sofia')</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" t="s">
-        <v>375</v>
-      </c>
-      <c r="C70" t="str">
-        <f t="shared" si="2"/>
-        <v>('LuciaCipoletti','Lucia')</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('LuciaCipoletti','Lucia')</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71" t="s">
-        <v>389</v>
-      </c>
-      <c r="C71" t="str">
-        <f t="shared" si="2"/>
-        <v>('LuciaCipoletti','Paolo')</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('LuciaCipoletti','Paolo')</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" t="s">
-        <v>415</v>
-      </c>
-      <c r="C72" t="str">
-        <f t="shared" si="2"/>
-        <v>('LuciaCipoletti','Francesca')</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('LuciaCipoletti','Francesca')</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" t="s">
-        <v>382</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" si="2"/>
-        <v>('LuciaCipoletti','Gianluca')</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('LuciaCipoletti','Gianluca')</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B74" t="s">
-        <v>373</v>
-      </c>
-      <c r="C74" t="str">
-        <f t="shared" si="2"/>
-        <v>('LuciaCipoletti','Riccardo')</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('LuciaCipoletti','Riccardo')</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" t="s">
-        <v>408</v>
-      </c>
-      <c r="C75" t="str">
-        <f t="shared" si="2"/>
-        <v>('GracePaolaBenvenuti','Grace')</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GracePaolaBenvenuti','Grace')</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" t="s">
-        <v>416</v>
-      </c>
-      <c r="C76" t="str">
-        <f t="shared" si="2"/>
-        <v>('GracePaolaBenvenuti','Morena')</v>
-      </c>
-      <c r="D76" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GracePaolaBenvenuti','Morena')</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s">
-        <v>369</v>
-      </c>
-      <c r="C77" t="str">
-        <f t="shared" si="2"/>
-        <v>('FrancescoCasanova','Francesco')</v>
-      </c>
-      <c r="D77" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('FrancescoCasanova','Francesco')</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" t="s">
-        <v>417</v>
-      </c>
-      <c r="C78" t="str">
-        <f t="shared" si="2"/>
-        <v>('FrancescoCasanova','Oscar')</v>
-      </c>
-      <c r="D78" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('FrancescoCasanova','Oscar')</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" t="s">
-        <v>409</v>
-      </c>
-      <c r="C79" t="str">
-        <f t="shared" si="2"/>
-        <v>('KarolMobili','Karol')</v>
-      </c>
-      <c r="D79" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('KarolMobili','Karol')</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" t="s">
-        <v>410</v>
-      </c>
-      <c r="C80" t="str">
-        <f t="shared" si="2"/>
-        <v>('BrunoAntonioZiomi','Bruno')</v>
-      </c>
-      <c r="D80" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('BrunoAntonioZiomi','Bruno')</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" t="s">
-        <v>418</v>
-      </c>
-      <c r="C81" t="str">
-        <f t="shared" si="2"/>
-        <v>('BrunoAntonioZiomi','Antonio')</v>
-      </c>
-      <c r="D81" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('BrunoAntonioZiomi','Antonio')</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" t="s">
-        <v>411</v>
-      </c>
-      <c r="C82" t="str">
-        <f t="shared" si="2"/>
-        <v>('FlorisRado','Floris')</v>
-      </c>
-      <c r="D82" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('FlorisRado','Floris')</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83" t="s">
-        <v>412</v>
-      </c>
-      <c r="C83" t="str">
-        <f t="shared" si="2"/>
-        <v>('GiacomoFrassineti','Giacomo')</v>
-      </c>
-      <c r="D83" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiacomoFrassineti','Giacomo')</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" t="s">
-        <v>423</v>
-      </c>
-      <c r="C84" t="str">
-        <f t="shared" si="2"/>
-        <v>('GiacomoFrassineti','Mario')</v>
-      </c>
-      <c r="D84" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiacomoFrassineti','Mario')</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" t="s">
-        <v>372</v>
-      </c>
-      <c r="C85" t="str">
-        <f t="shared" si="2"/>
-        <v>('GiacomoFrassineti','Chiara')</v>
-      </c>
-      <c r="D85" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiacomoFrassineti','Chiara')</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" t="s">
-        <v>419</v>
-      </c>
-      <c r="C86" t="str">
-        <f t="shared" si="2"/>
-        <v>('OrfeoPioGavotto','Orfeo')</v>
-      </c>
-      <c r="D86" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('OrfeoPioGavotto','Orfeo')</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B87" t="s">
-        <v>420</v>
-      </c>
-      <c r="C87" t="str">
-        <f t="shared" si="2"/>
-        <v>('GiorgioLeni','Giorgio')</v>
-      </c>
-      <c r="D87" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiorgioLeni','Giorgio')</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" t="s">
-        <v>421</v>
-      </c>
-      <c r="C88" t="str">
-        <f t="shared" si="2"/>
-        <v>('GiorgioLeni','Giorgia')</v>
-      </c>
-      <c r="D88" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiorgioLeni','Giorgia')</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" t="s">
-        <v>422</v>
-      </c>
-      <c r="C89" t="str">
-        <f t="shared" si="2"/>
-        <v>('GiorgioLeni','Lucio')</v>
-      </c>
-      <c r="D89" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiorgioLeni','Lucio')</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>395</v>
-      </c>
-      <c r="C90" t="str">
-        <f t="shared" si="2"/>
-        <v>('GiorgioLeni','Nicola')</v>
-      </c>
-      <c r="D90" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiorgioLeni','Nicola')</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
-        <v>423</v>
-      </c>
-      <c r="C91" t="str">
-        <f t="shared" si="2"/>
-        <v>('GiorgioLeni','Mario')</v>
-      </c>
-      <c r="D91" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO UTENTE (nomeAccount,nomeUtente) VALUES ('GiorgioLeni','Mario')</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ED8038-E63A-4EEC-A6A9-8E240DFCF3C7}">
-  <dimension ref="A1:C39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C39" si="0">_xlfn.CONCAT("('",A2,"','",B2,"')")</f>
-        <v>('AssuntaRubini','assunta12')</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>('GiuliaLetiziaNorbiato','giulia38')</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>('EttoreDomenici','ettore71')</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>('JavisDoparconi','javis69')</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>('CarolinaSanzani','carolina11')</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>('KevinBizzuti','kevin66')</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>('GiadaBitossi','giada42')</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>('SigfridoPraxiolu','sigfrido33')</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>('GyllesBiscaro','gylles88')</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>('FrancescoGelmini','francesco73')</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>('JuryCotugno','jury06')</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>('ZaraFederici','zara24')</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>('NickBelfiori','nick36')</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>('RyanVincenzi','ryan33')</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>('XavierDiIacono','xavier56')</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>('PaoloManfredi','paolo65')</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>('FrankZanchi','frank03')</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>('MicheleTatiani','michele45')</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>('BarbaraNevi','barbara79')</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>('HelenaBoccalupo','helena68')</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>('RiccardoErrico','riccardo09')</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>('ElenaDelia','elena02')</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>('ElenaRobertaNucibella','elena38')</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>('BeatriceNazari','beatrice29')</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>('ZenoneVega','zenone71')</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>('AntoniaRosaMicotti','antonia38')</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>('DarioAzeglioTabegna','dario38')</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>('TonyReggio','tony01')</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>('DomenicoMondadori','domenico47')</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>('LuciaCipoletti','lucia00')</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>('GracePaolaBenvenuti','grace38')</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>('FrancescoCasanova','francesco62')</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>('KarolMobili','karol22')</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>('BrunoAntonioZiomi','bruno38')</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>('FlorisRado','floris66')</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>('GiacomoFrassineti','giacomo73')</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>('OrfeoPioGavotto','orfeo38')</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>('GiorgioLeni','giorgio45')</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Query per popolare il DB/RiempimentoDB.xlsx
+++ b/Query per popolare il DB/RiempimentoDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caste\Desktop\2ndYear\db\ProgettoBasiDiDati\Query per popolare il DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBC317F-B115-44A1-8C48-B34BF06B28CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1DBDBA-A195-4E54-9820-97A16180F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="751" firstSheet="4" activeTab="10" xr2:uid="{8B2E1F49-2C79-4923-92B4-4A167F7E9540}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="751" firstSheet="4" activeTab="12" xr2:uid="{8B2E1F49-2C79-4923-92B4-4A167F7E9540}"/>
   </bookViews>
   <sheets>
     <sheet name="FILM" sheetId="13" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="931">
   <si>
     <t>giorgio45</t>
   </si>
@@ -2341,9 +2341,6 @@
     <t>Don</t>
   </si>
   <si>
-    <t>si</t>
-  </si>
-  <si>
     <t>Rich</t>
   </si>
   <si>
@@ -2458,9 +2455,6 @@
     <t>Jonathan</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
     <t>REG23</t>
   </si>
   <si>
@@ -2497,16 +2491,355 @@
     <t>REG24</t>
   </si>
   <si>
-    <t>Ginnifer Goodwin: Judy Hopps</t>
-  </si>
-  <si>
-    <t>Jason Bateman: Nick Wilde</t>
-  </si>
-  <si>
-    <t>Idris Elba: Capitano Bogo</t>
-  </si>
-  <si>
     <t>Judy Hoops</t>
+  </si>
+  <si>
+    <t>Nick Wilde</t>
+  </si>
+  <si>
+    <t>Capitano Bogo</t>
+  </si>
+  <si>
+    <t>Goodwin</t>
+  </si>
+  <si>
+    <t>Bateman</t>
+  </si>
+  <si>
+    <t>Elba</t>
+  </si>
+  <si>
+    <t>Ginnifer</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Idris</t>
+  </si>
+  <si>
+    <t>Clements</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Musker</t>
+  </si>
+  <si>
+    <t>REG25</t>
+  </si>
+  <si>
+    <t>REG26</t>
+  </si>
+  <si>
+    <t>REG27</t>
+  </si>
+  <si>
+    <t>REG28</t>
+  </si>
+  <si>
+    <t>ATT46</t>
+  </si>
+  <si>
+    <t>ATT47</t>
+  </si>
+  <si>
+    <t>ATT48</t>
+  </si>
+  <si>
+    <t>Maui</t>
+  </si>
+  <si>
+    <t>Tui Waialiki</t>
+  </si>
+  <si>
+    <t>Morrison</t>
+  </si>
+  <si>
+    <t>Temuera</t>
+  </si>
+  <si>
+    <t>Vaiana Waialiki</t>
+  </si>
+  <si>
+    <t>Cravalho</t>
+  </si>
+  <si>
+    <t>Dwayne</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Auli</t>
+  </si>
+  <si>
+    <t>Phil</t>
+  </si>
+  <si>
+    <t>Johnston</t>
+  </si>
+  <si>
+    <t>ATT49</t>
+  </si>
+  <si>
+    <t>ATT50</t>
+  </si>
+  <si>
+    <t>ATT51</t>
+  </si>
+  <si>
+    <t>Shank</t>
+  </si>
+  <si>
+    <t>Gadot</t>
+  </si>
+  <si>
+    <t>Gal</t>
+  </si>
+  <si>
+    <t>ATT52</t>
+  </si>
+  <si>
+    <t>Olaf</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Gad</t>
+  </si>
+  <si>
+    <t>REG29</t>
+  </si>
+  <si>
+    <t>REG30</t>
+  </si>
+  <si>
+    <t>REG31</t>
+  </si>
+  <si>
+    <t>REG32</t>
+  </si>
+  <si>
+    <t>REG33</t>
+  </si>
+  <si>
+    <t>REG34</t>
+  </si>
+  <si>
+    <t>REG35</t>
+  </si>
+  <si>
+    <t>REG36</t>
+  </si>
+  <si>
+    <t>REG37</t>
+  </si>
+  <si>
+    <t>REG38</t>
+  </si>
+  <si>
+    <t>REG39</t>
+  </si>
+  <si>
+    <t>REG40</t>
+  </si>
+  <si>
+    <t>ATT53</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>ATT54</t>
+  </si>
+  <si>
+    <t>ATT55</t>
+  </si>
+  <si>
+    <t>ATT56</t>
+  </si>
+  <si>
+    <t>ATT57</t>
+  </si>
+  <si>
+    <t>ATT58</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Ron Weasley</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Radcliffe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watson </t>
+  </si>
+  <si>
+    <t>Rupert</t>
+  </si>
+  <si>
+    <t>Grint</t>
+  </si>
+  <si>
+    <t>Katie</t>
+  </si>
+  <si>
+    <t>Micah</t>
+  </si>
+  <si>
+    <t>Sloat</t>
+  </si>
+  <si>
+    <t>Featherston</t>
+  </si>
+  <si>
+    <t>ATT59</t>
+  </si>
+  <si>
+    <t>ATT60</t>
+  </si>
+  <si>
+    <t>ATT61</t>
+  </si>
+  <si>
+    <t>ATT62</t>
+  </si>
+  <si>
+    <t>Hardwicke</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>Pattinsion</t>
+  </si>
+  <si>
+    <t>Lautner</t>
+  </si>
+  <si>
+    <t>Jacob Black</t>
+  </si>
+  <si>
+    <t>Isabella Swan</t>
+  </si>
+  <si>
+    <t>Edward Cullen</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Downey Jr</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Favreau</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Bruce Banner</t>
+  </si>
+  <si>
+    <t>Steven Strange</t>
+  </si>
+  <si>
+    <t>Steve Rogers</t>
+  </si>
+  <si>
+    <t>ATT63</t>
+  </si>
+  <si>
+    <t>ATT64</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Leterrier</t>
+  </si>
+  <si>
+    <t>Hemsworth</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>Branagh</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Shane</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Joss</t>
+  </si>
+  <si>
+    <t>Whedon</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Ruffalo</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Rudd</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Scott Lang</t>
+  </si>
+  <si>
+    <t>Peyton</t>
+  </si>
+  <si>
+    <t>Reed</t>
+  </si>
+  <si>
+    <t>Derrickson</t>
   </si>
 </sst>
 </file>
@@ -2891,1278 +3224,1267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D98D9EE-02FF-4CD3-B3E7-4B10FBF884E9}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="145.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="145.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>424</v>
+      </c>
       <c r="B1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D1" t="s">
         <v>427</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
         <v>722</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>493</v>
       </c>
+      <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="7"/>
-      <c r="O1" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>764</v>
-      </c>
-      <c r="B2" t="s">
         <v>693</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="F2" s="2">
+      <c r="E2" s="2">
         <v>2011</v>
       </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F39" si="0">_xlfn.CONCAT("('",A2,"','",B2,"',",C2,",'",D2,"',",E2,")")</f>
+        <v>('DIS1','Winnie the Pooh – Nuove avventure nel Bosco dei 100 Acri','00:58:00','T',2011)</v>
+      </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G39" si="0">_xlfn.CONCAT("('",B2,"','",C2,"',",D2,",'",E2,"',",F2,")")</f>
-        <v>('DIS1','Winnie the Pooh – Nuove avventure nel Bosco dei 100 Acri','00:58:00','T',2011)</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H39" si="1">_xlfn.CONCAT("INSERT INTO FILM (",$B$1,",",$C$1,",",$D$1,",",$E$1,",",$F$1,")"," VALUES ",G2)</f>
+        <f t="shared" ref="G2:G39" si="1">_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F2)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS1','Winnie the Pooh – Nuove avventure nel Bosco dei 100 Acri','00:58:00','T',2011)</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>764</v>
-      </c>
-      <c r="B3" t="s">
         <v>692</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E3" s="2">
         <v>2012</v>
       </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>('DIS2','Ralph Spaccatutto','01:30:00','T',2012)</v>
+      </c>
       <c r="G3" t="str">
-        <f t="shared" si="0"/>
-        <v>('DIS2','Ralph Spaccatutto','01:30:00','T',2012)</v>
-      </c>
-      <c r="H3" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS2','Ralph Spaccatutto','01:30:00','T',2012)</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>803</v>
-      </c>
-      <c r="B4" t="s">
         <v>691</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2">
         <v>2013</v>
       </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>('DIS3','Frozen – Il regno di ghiaccio','01:00:00','T',2013)</v>
+      </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>('DIS3','Frozen – Il regno di ghiaccio','01:00:00','T',2013)</v>
-      </c>
-      <c r="H4" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS3','Frozen – Il regno di ghiaccio','01:00:00','T',2013)</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>764</v>
-      </c>
-      <c r="B5" t="s">
         <v>690</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="2">
         <v>2014</v>
       </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>('DIS4','Big Hero 6','01:15:00','T',2014)</v>
+      </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>('DIS4','Big Hero 6','01:15:00','T',2014)</v>
-      </c>
-      <c r="H5" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS4','Big Hero 6','01:15:00','T',2014)</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>689</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="F6" s="2">
+      <c r="E6" s="2">
         <v>2015</v>
       </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>('DIS5','Zootropolis','01:25:00','T',2015)</v>
+      </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>('DIS5','Zootropolis','01:25:00','T',2015)</v>
-      </c>
-      <c r="H6" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS5','Zootropolis','01:25:00','T',2015)</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>688</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="E7" s="2">
         <v>2016</v>
       </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>('DIS6','Oceania','01:30:00','T',2016)</v>
+      </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>('DIS6','Oceania','01:30:00','T',2016)</v>
-      </c>
-      <c r="H7" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS6','Oceania','01:30:00','T',2016)</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>687</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E8" s="2">
         <v>2019</v>
       </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>('DIS7','Ralph Spacca Internet – Ralph Spaccatutto 2','01:02:00','T',2019)</v>
+      </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>('DIS7','Ralph Spacca Internet – Ralph Spaccatutto 2','01:02:00','T',2019)</v>
-      </c>
-      <c r="H8" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS7','Ralph Spacca Internet – Ralph Spaccatutto 2','01:02:00','T',2019)</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>686</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="F9" s="2">
+      <c r="E9" s="2">
         <v>2019</v>
       </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>('DIS8','Frozen II – Il segreto di Arendelle  ','01:14:00','T',2019)</v>
+      </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>('DIS8','Frozen II – Il segreto di Arendelle  ','01:14:00','T',2019)</v>
-      </c>
-      <c r="H9" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS8','Frozen II – Il segreto di Arendelle  ','01:14:00','T',2019)</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>500</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>472</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D10" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="F10" s="2">
+      <c r="E10" s="2">
         <v>2001</v>
       </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>('WARN1','Harry Potter e La Pietra Filosofale ','02:10:00','VM14',2001)</v>
+      </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>('WARN1','Harry Potter e La Pietra Filosofale ','02:10:00','VM14',2001)</v>
-      </c>
-      <c r="H10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN1','Harry Potter e La Pietra Filosofale ','02:10:00','VM14',2001)</v>
       </c>
+      <c r="H10" t="s">
+        <v>492</v>
+      </c>
       <c r="I10" t="s">
+        <v>483</v>
+      </c>
+      <c r="J10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2002</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>('WARN2','Harry Potter e La Camera Dei Segreti ','02:07:00','VM14',2002)</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN2','Harry Potter e La Camera Dei Segreti ','02:07:00','VM14',2002)</v>
+      </c>
+      <c r="H11" t="s">
         <v>492</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I11" t="s">
         <v>483</v>
       </c>
-      <c r="K10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>501</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="J11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="F11" s="2">
-        <v>2002</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>('WARN2','Harry Potter e La Camera Dei Segreti ','02:07:00','VM14',2002)</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN2','Harry Potter e La Camera Dei Segreti ','02:07:00','VM14',2002)</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="E12" s="2">
+        <v>2004</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>('WARN3','Harry Potter e Il Prigioniero Di Azkaban ','02:20:00','VM14',2004)</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN3','Harry Potter e Il Prigioniero Di Azkaban ','02:20:00','VM14',2004)</v>
+      </c>
+      <c r="H12" t="s">
         <v>492</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I12" t="s">
         <v>483</v>
       </c>
-      <c r="K11" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>502</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="J12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2005</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>('WARN4','Harry Potter e Il Calice Di Fuoco ','02:15:00','VM14',2005)</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN4','Harry Potter e Il Calice Di Fuoco ','02:15:00','VM14',2005)</v>
+      </c>
+      <c r="H13" t="s">
+        <v>492</v>
+      </c>
+      <c r="I13" t="s">
+        <v>483</v>
+      </c>
+      <c r="J13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>504</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2007</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>('WARN5','Harry Potter e L'Ordine Della Fenice ','02:05:00','VM14',2007)</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN5','Harry Potter e L'Ordine Della Fenice ','02:05:00','VM14',2007)</v>
+      </c>
+      <c r="H14" t="s">
+        <v>492</v>
+      </c>
+      <c r="I14" t="s">
+        <v>483</v>
+      </c>
+      <c r="J14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2009</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>('WARN6','Harry Potter e Il Principe Mezzosangue ','02:12:00','VM14',2009)</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN6','Harry Potter e Il Principe Mezzosangue ','02:12:00','VM14',2009)</v>
+      </c>
+      <c r="H15" t="s">
+        <v>492</v>
+      </c>
+      <c r="I15" t="s">
+        <v>483</v>
+      </c>
+      <c r="J15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>506</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2010</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>('WARN7','Harry Potter e I Doni Della Morte – Parte 1 ','02:17:00','VM14',2010)</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN7','Harry Potter e I Doni Della Morte – Parte 1 ','02:17:00','VM14',2010)</v>
+      </c>
+      <c r="H16" t="s">
+        <v>492</v>
+      </c>
+      <c r="I16" t="s">
+        <v>483</v>
+      </c>
+      <c r="J16" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>507</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2011</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>('WARN8','Harry Potter e I Doni Della Morte – Parte 2 ','02:25:00','VM14',2011)</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN8','Harry Potter e I Doni Della Morte – Parte 2 ','02:25:00','VM14',2011)</v>
+      </c>
+      <c r="H17" t="s">
+        <v>492</v>
+      </c>
+      <c r="I17" t="s">
+        <v>483</v>
+      </c>
+      <c r="J17" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>560</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2007</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>('HOR1','Paranormal activity','01:38:00','VM18',2007)</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR1','Paranormal activity','01:38:00','VM18',2007)</v>
+      </c>
+      <c r="H18" t="s">
+        <v>571</v>
+      </c>
+      <c r="I18" t="s">
+        <v>572</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>561</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2010</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>('HOR2','Paranormal activity 2','01:42:00','VM18',2010)</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR2','Paranormal activity 2','01:42:00','VM18',2010)</v>
+      </c>
+      <c r="H19" t="s">
+        <v>571</v>
+      </c>
+      <c r="I19" t="s">
+        <v>574</v>
+      </c>
+      <c r="J19" t="s">
+        <v>573</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>562</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2011</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>('HOR3','Paranormal activity 3 ','01:47:00','VM18',2011)</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR3','Paranormal activity 3 ','01:47:00','VM18',2011)</v>
+      </c>
+      <c r="H20" t="s">
+        <v>571</v>
+      </c>
+      <c r="I20" t="s">
+        <v>574</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>563</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>('HOR4','Paranormal activity 4 ','01:39:00','VM18',2012)</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR4','Paranormal activity 4 ','01:39:00','VM18',2012)</v>
+      </c>
+      <c r="H21" t="s">
+        <v>571</v>
+      </c>
+      <c r="I21" t="s">
+        <v>574</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>564</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>('HOR5','Il segnato','01:51:00','VM18',2014)</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR5','Il segnato','01:51:00','VM18',2014)</v>
+      </c>
+      <c r="H22" t="s">
+        <v>571</v>
+      </c>
+      <c r="I22" t="s">
+        <v>574</v>
+      </c>
+      <c r="J22" t="s">
+        <v>573</v>
+      </c>
+      <c r="K22" t="s">
+        <v>576</v>
+      </c>
+      <c r="L22" t="s">
+        <v>575</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>565</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>('HOR6','Paranormal activity: La dimensione fantasma','01:27:00','VM18',2015)</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR6','Paranormal activity: La dimensione fantasma','01:27:00','VM18',2015)</v>
+      </c>
+      <c r="H23" t="s">
+        <v>589</v>
+      </c>
+      <c r="J23" t="s">
+        <v>573</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>583</v>
+      </c>
+      <c r="B24" t="s">
+        <v>577</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E24">
+        <v>2008</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>('TWIL1','Twilight','02:00:00','VM14',2008)</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('TWIL1','Twilight','02:00:00','VM14',2008)</v>
+      </c>
+      <c r="H24" t="s">
+        <v>589</v>
+      </c>
+      <c r="I24" t="s">
+        <v>590</v>
+      </c>
+      <c r="J24" t="s">
+        <v>591</v>
+      </c>
+      <c r="K24" t="s">
+        <v>592</v>
+      </c>
+      <c r="L24" t="s">
+        <v>593</v>
+      </c>
+      <c r="M24" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>584</v>
+      </c>
+      <c r="B25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2004</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>('WARN3','Harry Potter e Il Prigioniero Di Azkaban ','02:20:00','VM14',2004)</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN3','Harry Potter e Il Prigioniero Di Azkaban ','02:20:00','VM14',2004)</v>
-      </c>
-      <c r="I12" t="s">
-        <v>492</v>
-      </c>
-      <c r="J12" t="s">
-        <v>483</v>
-      </c>
-      <c r="K12" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>503</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2005</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>('WARN4','Harry Potter e Il Calice Di Fuoco ','02:15:00','VM14',2005)</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN4','Harry Potter e Il Calice Di Fuoco ','02:15:00','VM14',2005)</v>
-      </c>
-      <c r="I13" t="s">
-        <v>492</v>
-      </c>
-      <c r="J13" t="s">
-        <v>483</v>
-      </c>
-      <c r="K13" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>504</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="D25" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="E25">
+        <v>2009</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>('TWIL2','The Twilight Saga: New Moon','02:20:00','VM15',2009)</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('TWIL2','The Twilight Saga: New Moon','02:20:00','VM15',2009)</v>
+      </c>
+      <c r="H25" t="s">
+        <v>589</v>
+      </c>
+      <c r="I25" t="s">
+        <v>590</v>
+      </c>
+      <c r="J25" t="s">
+        <v>591</v>
+      </c>
+      <c r="K25" t="s">
+        <v>595</v>
+      </c>
+      <c r="M25" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>585</v>
+      </c>
+      <c r="B26" t="s">
+        <v>579</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E26">
+        <v>2010</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>('TWIL3','Twilight / New Moon ','01:50:00','VM16',2010)</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('TWIL3','Twilight / New Moon ','01:50:00','VM16',2010)</v>
+      </c>
+      <c r="H26" t="s">
+        <v>589</v>
+      </c>
+      <c r="I26" t="s">
+        <v>590</v>
+      </c>
+      <c r="J26" t="s">
+        <v>591</v>
+      </c>
+      <c r="K26" t="s">
+        <v>595</v>
+      </c>
+      <c r="M26" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>624</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2008</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>('AVEN1','Iron Man ','01:40:00','T',2008)</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN1','Iron Man ','01:40:00','T',2008)</v>
+      </c>
+      <c r="H27" t="s">
+        <v>652</v>
+      </c>
+      <c r="J27" t="s">
+        <v>653</v>
+      </c>
+      <c r="K27" t="s">
+        <v>654</v>
+      </c>
+      <c r="L27" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>625</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2008</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>('AVEN2','L'Incredibile Hulk ','02:00:00','T',2008)</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN2','L'Incredibile Hulk ','02:00:00','T',2008)</v>
+      </c>
+      <c r="H28" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>626</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2010</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>('AVEN3','Iron Man 2 ','01:55:00','T',2010)</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN3','Iron Man 2 ','01:55:00','T',2010)</v>
+      </c>
+      <c r="H29" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>627</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2007</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>('WARN5','Harry Potter e L'Ordine Della Fenice ','02:05:00','VM14',2007)</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN5','Harry Potter e L'Ordine Della Fenice ','02:05:00','VM14',2007)</v>
-      </c>
-      <c r="I14" t="s">
-        <v>492</v>
-      </c>
-      <c r="J14" t="s">
-        <v>483</v>
-      </c>
-      <c r="K14" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>505</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2009</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>('WARN6','Harry Potter e Il Principe Mezzosangue ','02:12:00','VM14',2009)</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN6','Harry Potter e Il Principe Mezzosangue ','02:12:00','VM14',2009)</v>
-      </c>
-      <c r="I15" t="s">
-        <v>492</v>
-      </c>
-      <c r="J15" t="s">
-        <v>483</v>
-      </c>
-      <c r="K15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>506</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2010</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>('WARN7','Harry Potter e I Doni Della Morte – Parte 1 ','02:17:00','VM14',2010)</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN7','Harry Potter e I Doni Della Morte – Parte 1 ','02:17:00','VM14',2010)</v>
-      </c>
-      <c r="I16" t="s">
-        <v>492</v>
-      </c>
-      <c r="J16" t="s">
-        <v>483</v>
-      </c>
-      <c r="K16" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>507</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="D30" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E30" s="2">
         <v>2011</v>
       </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>('WARN8','Harry Potter e I Doni Della Morte – Parte 2 ','02:25:00','VM14',2011)</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN8','Harry Potter e I Doni Della Morte – Parte 2 ','02:25:00','VM14',2011)</v>
-      </c>
-      <c r="I17" t="s">
-        <v>492</v>
-      </c>
-      <c r="J17" t="s">
-        <v>483</v>
-      </c>
-      <c r="K17" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>560</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2007</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>('HOR1','Paranormal activity','01:38:00','VM18',2007)</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR1','Paranormal activity','01:38:00','VM18',2007)</v>
-      </c>
-      <c r="I18" t="s">
-        <v>571</v>
-      </c>
-      <c r="J18" t="s">
-        <v>572</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>561</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>('AVEN4','Thor ','02:05:00','T',2011)</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN4','Thor ','02:05:00','T',2011)</v>
+      </c>
+      <c r="H30" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>628</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2011</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>('AVEN5','Captain America: Il Primo Vendicatore ','02:20:00','T',2011)</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN5','Captain America: Il Primo Vendicatore ','02:20:00','T',2011)</v>
+      </c>
+      <c r="H31" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>629</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>('AVEN6','Avengers ','02:00:00','T',2012)</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN6','Avengers ','02:00:00','T',2012)</v>
+      </c>
+      <c r="H32" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>630</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>('AVEN7','Iron Man 3 ','02:05:00','T',2013)</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN7','Iron Man 3 ','02:05:00','T',2013)</v>
+      </c>
+      <c r="H33" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>631</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>('AVEN8','Thor: The Dark World ','01:45:00','T',2013)</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN8','Thor: The Dark World ','01:45:00','T',2013)</v>
+      </c>
+      <c r="H34" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>632</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>('AVEN9','Captain America: The Winter Soldier','01:52:00','T',2014)</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN9','Captain America: The Winter Soldier','01:52:00','T',2014)</v>
+      </c>
+      <c r="H35" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>633</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>('AVEN10','Avengers: Age of Ultron ','01:46:00','T',2015)</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN10','Avengers: Age of Ultron ','01:46:00','T',2015)</v>
+      </c>
+      <c r="H36" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>634</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>('AVEN11','Ant-Man','01:45:00','T',2015)</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN11','Ant-Man','01:45:00','T',2015)</v>
+      </c>
+      <c r="H37" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>635</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>('AVEN12','Captain America: Civil War ','01:52:00','T',2016)</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN12','Captain America: Civil War ','01:52:00','T',2016)</v>
+      </c>
+      <c r="H38" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>636</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2010</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>('HOR2','Paranormal activity 2','01:42:00','VM18',2010)</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR2','Paranormal activity 2','01:42:00','VM18',2010)</v>
-      </c>
-      <c r="I19" t="s">
-        <v>571</v>
-      </c>
-      <c r="J19" t="s">
-        <v>574</v>
-      </c>
-      <c r="K19" t="s">
-        <v>573</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>562</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2011</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>('HOR3','Paranormal activity 3 ','01:47:00','VM18',2011)</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR3','Paranormal activity 3 ','01:47:00','VM18',2011)</v>
-      </c>
-      <c r="I20" t="s">
-        <v>571</v>
-      </c>
-      <c r="J20" t="s">
-        <v>574</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>563</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2012</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>('HOR4','Paranormal activity 4 ','01:39:00','VM18',2012)</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR4','Paranormal activity 4 ','01:39:00','VM18',2012)</v>
-      </c>
-      <c r="I21" t="s">
-        <v>571</v>
-      </c>
-      <c r="J21" t="s">
-        <v>574</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>564</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2014</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>('HOR5','Il segnato','01:51:00','VM18',2014)</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR5','Il segnato','01:51:00','VM18',2014)</v>
-      </c>
-      <c r="I22" t="s">
-        <v>571</v>
-      </c>
-      <c r="J22" t="s">
-        <v>574</v>
-      </c>
-      <c r="K22" t="s">
-        <v>573</v>
-      </c>
-      <c r="L22" t="s">
-        <v>576</v>
-      </c>
-      <c r="M22" t="s">
-        <v>575</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>565</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="0"/>
-        <v>('HOR6','Paranormal activity: La dimensione fantasma','01:27:00','VM18',2015)</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR6','Paranormal activity: La dimensione fantasma','01:27:00','VM18',2015)</v>
-      </c>
-      <c r="I23" t="s">
-        <v>589</v>
-      </c>
-      <c r="K23" t="s">
-        <v>573</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>583</v>
-      </c>
-      <c r="C24" t="s">
-        <v>577</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="F24">
-        <v>2008</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" si="0"/>
-        <v>('TWIL1','Twilight','02:00:00','VM14',2008)</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('TWIL1','Twilight','02:00:00','VM14',2008)</v>
-      </c>
-      <c r="I24" t="s">
-        <v>589</v>
-      </c>
-      <c r="J24" t="s">
-        <v>590</v>
-      </c>
-      <c r="K24" t="s">
-        <v>591</v>
-      </c>
-      <c r="L24" t="s">
-        <v>592</v>
-      </c>
-      <c r="M24" t="s">
-        <v>593</v>
-      </c>
-      <c r="N24" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>584</v>
-      </c>
-      <c r="C25" t="s">
-        <v>578</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="F25">
-        <v>2009</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" si="0"/>
-        <v>('TWIL2','The Twilight Saga: New Moon','02:20:00','VM15',2009)</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('TWIL2','The Twilight Saga: New Moon','02:20:00','VM15',2009)</v>
-      </c>
-      <c r="I25" t="s">
-        <v>589</v>
-      </c>
-      <c r="J25" t="s">
-        <v>590</v>
-      </c>
-      <c r="K25" t="s">
-        <v>591</v>
-      </c>
-      <c r="L25" t="s">
-        <v>595</v>
-      </c>
-      <c r="N25" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>585</v>
-      </c>
-      <c r="C26" t="s">
-        <v>579</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="F26">
-        <v>2010</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" si="0"/>
-        <v>('TWIL3','Twilight / New Moon ','01:50:00','VM16',2010)</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('TWIL3','Twilight / New Moon ','01:50:00','VM16',2010)</v>
-      </c>
-      <c r="I26" t="s">
-        <v>589</v>
-      </c>
-      <c r="J26" t="s">
-        <v>590</v>
-      </c>
-      <c r="K26" t="s">
-        <v>591</v>
-      </c>
-      <c r="L26" t="s">
-        <v>595</v>
-      </c>
-      <c r="N26" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>624</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="F27" s="2">
-        <v>2008</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" si="0"/>
-        <v>('AVEN1','Iron Man ','01:40:00','T',2008)</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN1','Iron Man ','01:40:00','T',2008)</v>
-      </c>
-      <c r="I27" t="s">
-        <v>652</v>
-      </c>
-      <c r="K27" t="s">
-        <v>653</v>
-      </c>
-      <c r="L27" t="s">
-        <v>654</v>
-      </c>
-      <c r="M27" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>625</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F28" s="2">
-        <v>2008</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" si="0"/>
-        <v>('AVEN2','L'Incredibile Hulk ','02:00:00','T',2008)</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN2','L'Incredibile Hulk ','02:00:00','T',2008)</v>
-      </c>
-      <c r="I28" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>626</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2010</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>('AVEN3','Iron Man 2 ','01:55:00','T',2010)</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN3','Iron Man 2 ','01:55:00','T',2010)</v>
-      </c>
-      <c r="I29" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>627</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2011</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>('AVEN4','Thor ','02:05:00','T',2011)</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN4','Thor ','02:05:00','T',2011)</v>
-      </c>
-      <c r="I30" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>628</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2011</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>('AVEN5','Captain America: Il Primo Vendicatore ','02:20:00','T',2011)</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN5','Captain America: Il Primo Vendicatore ','02:20:00','T',2011)</v>
-      </c>
-      <c r="I31" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>629</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2012</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v>('AVEN6','Avengers ','02:00:00','T',2012)</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN6','Avengers ','02:00:00','T',2012)</v>
-      </c>
-      <c r="I32" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>630</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F33" s="2">
-        <v>2013</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v>('AVEN7','Iron Man 3 ','02:05:00','T',2013)</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN7','Iron Man 3 ','02:05:00','T',2013)</v>
-      </c>
-      <c r="I33" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>631</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2013</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v>('AVEN8','Thor: The Dark World ','01:45:00','T',2013)</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN8','Thor: The Dark World ','01:45:00','T',2013)</v>
-      </c>
-      <c r="I34" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>632</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F35" s="2">
-        <v>2014</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>('AVEN9','Captain America: The Winter Soldier','01:52:00','T',2014)</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN9','Captain America: The Winter Soldier','01:52:00','T',2014)</v>
-      </c>
-      <c r="I35" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>633</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F36" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>('AVEN10','Avengers: Age of Ultron ','01:46:00','T',2015)</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN10','Avengers: Age of Ultron ','01:46:00','T',2015)</v>
-      </c>
-      <c r="I36" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>634</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F37" s="2">
-        <v>2015</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>('AVEN11','Ant-Man','01:45:00','T',2015)</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN11','Ant-Man','01:45:00','T',2015)</v>
-      </c>
-      <c r="I37" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>635</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F38" s="2">
+      <c r="E39" s="2">
         <v>2016</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>('AVEN12','Captain America: Civil War ','01:52:00','T',2016)</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN12','Captain America: Civil War ','01:52:00','T',2016)</v>
-      </c>
-      <c r="I38" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>636</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F39" s="2">
-        <v>2016</v>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>('AVEN13','Doctor Strange','01:42:00','T',2016)</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v>('AVEN13','Doctor Strange','01:42:00','T',2016)</v>
-      </c>
-      <c r="H39" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN13','Doctor Strange','01:42:00','T',2016)</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H39" t="s">
         <v>652</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4173,7 +4495,7 @@
   <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5641,8 +5963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ED8038-E63A-4EEC-A6A9-8E240DFCF3C7}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F2:F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5687,7 +6009,7 @@
         <v>('GiuliaLetiziaNorbiato','giulia38')</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F40" si="1">_xlfn.CONCAT("INSERT INTO ACCOUNT (",$A$1,",",$B$1,")"," VALUES ",C3)</f>
+        <f t="shared" ref="F3:F39" si="1">_xlfn.CONCAT("INSERT INTO ACCOUNT (",$A$1,",",$B$1,")"," VALUES ",C3)</f>
         <v>INSERT INTO ACCOUNT (nomeAccount,password) VALUES ('GiuliaLetiziaNorbiato','giulia38')</v>
       </c>
     </row>
@@ -6277,7 +6599,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7867,8 +8189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AE3761-F32A-426D-A3B2-9332843C89F6}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8722,8 +9044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2354E1D2-7462-4BD6-8229-76D3E447F063}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8761,7 +9083,7 @@
         <v>273</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E30" si="0">_xlfn.CONCAT("('",A2,"',",B2,",",C2,",'",D2,"')")</f>
+        <f>_xlfn.CONCAT("('",A2,"',",B2,",",C2,",'",D2,"')")</f>
         <v>('12FRT574',01/01/2020,20,'RBNSNT03C57A944V')</v>
       </c>
     </row>
@@ -8779,7 +9101,7 @@
         <v>272</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A3,"',",B3,",",C3,",'",D3,"')")</f>
         <v>('12FRT575',02/01/2020,30,'NRBGLT73L64A432S')</v>
       </c>
     </row>
@@ -8797,7 +9119,7 @@
         <v>271</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A4,"',",B4,",",C4,",'",D4,"')")</f>
         <v>('58ABT576',03/01/2020,20,'HSOTRD72T16C938O')</v>
       </c>
     </row>
@@ -8815,7 +9137,7 @@
         <v>270</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A5,"',",B5,",",C5,",'",D5,"')")</f>
         <v>('58ABT577',12/07/2020,20,'JVSDPC55S48G932U')</v>
       </c>
     </row>
@@ -8833,7 +9155,7 @@
         <v>269</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A6,"',",B6,",",C6,",'",D6,"')")</f>
         <v>('58ABT578',05/01/2020,20,'KPJKSZ33C22B844K')</v>
       </c>
     </row>
@@ -8851,7 +9173,7 @@
         <v>268</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A7,"',",B7,",",C7,",'",D7,"')")</f>
         <v>('58ABT579',06/01/2020,20,'BPQKZC66C29B929U')</v>
       </c>
     </row>
@@ -8869,7 +9191,7 @@
         <v>267</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A8,"',",B8,",",C8,",'",D8,"')")</f>
         <v>('58ABT580',17/10/2020,20,'BTSGDD28L68C855Y')</v>
       </c>
     </row>
@@ -8887,7 +9209,7 @@
         <v>266</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A9,"',",B9,",",C9,",'",D9,"')")</f>
         <v>('12FRT581',08/02/2020,20,'PRXSFR78H29F450W')</v>
       </c>
     </row>
@@ -8905,7 +9227,7 @@
         <v>265</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A10,"',",B10,",",C10,",'",D10,"')")</f>
         <v>('18SRT582',09/02/2020,20,'BSCGYL52S09I417R')</v>
       </c>
     </row>
@@ -8923,7 +9245,7 @@
         <v>264</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A11,"',",B11,",",C11,",'",D11,"')")</f>
         <v>('18SRT583',10/02/2020,20,'GKHFOE66B17F118C')</v>
       </c>
     </row>
@@ -8941,7 +9263,7 @@
         <v>258</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A12,"',",B12,",",C12,",'",D12,"')")</f>
         <v>('18SRT584',11/02/2020,20,'CTGJYV99L20L731F')</v>
       </c>
     </row>
@@ -8959,7 +9281,7 @@
         <v>253</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A13,"',",B13,",",C13,",'",D13,"')")</f>
         <v>('15FRT585',12/02/2020,20,'FIUZFD44T55F558J')</v>
       </c>
     </row>
@@ -8977,7 +9299,7 @@
         <v>248</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A14,"',",B14,",",C14,",'",D14,"')")</f>
         <v>('13FRT586',13/01/2020,20,'NCKBVF41P25I031C')</v>
       </c>
     </row>
@@ -8995,7 +9317,7 @@
         <v>241</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A15,"',",B15,",",C15,",'",D15,"')")</f>
         <v>('13FRT587',14/01/2020,30,'ZCPRNV55L24F772X')</v>
       </c>
     </row>
@@ -9013,7 +9335,7 @@
         <v>234</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A16,"',",B16,",",C16,",'",D16,"')")</f>
         <v>('13FRT588',15/03/2020,30,'DCVXVH78M67B021Z')</v>
       </c>
     </row>
@@ -9031,7 +9353,7 @@
         <v>229</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A17,"',",B17,",",C17,",'",D17,"')")</f>
         <v>('13FRT589',16/10/2020,30,'YRMXXR98A54I356V')</v>
       </c>
     </row>
@@ -9049,7 +9371,7 @@
         <v>224</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A18,"',",B18,",",C18,",'",D18,"')")</f>
         <v>('13FRT590',17/10/2020,30,'FKZTXB85L49F925D')</v>
       </c>
     </row>
@@ -9067,7 +9389,7 @@
         <v>219</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A19,"',",B19,",",C19,",'",D19,"')")</f>
         <v>('13FRT591',18/10/2020,30,'TUAHMT93P58Z312M')</v>
       </c>
     </row>
@@ -9085,7 +9407,7 @@
         <v>214</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A20,"',",B20,",",C20,",'",D20,"')")</f>
         <v>('13FRT592',19/03/2020,30,'NVXKBQ88M21B009G')</v>
       </c>
     </row>
@@ -9103,7 +9425,7 @@
         <v>209</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A21,"',",B21,",",C21,",'",D21,"')")</f>
         <v>('13FRT593',20/03/2020,15,'HSTBPU50B09H527Q')</v>
       </c>
     </row>
@@ -9121,7 +9443,7 @@
         <v>205</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A22,"',",B22,",",C22,",'",D22,"')")</f>
         <v>('13FRT594',21/03/2020,15,'RRCTCB54D28G282U')</v>
       </c>
     </row>
@@ -9139,7 +9461,7 @@
         <v>200</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A23,"',",B23,",",C23,",'",D23,"')")</f>
         <v>('21FRT595',22/03/2020,15,'PGWLDL32B57H839L')</v>
       </c>
     </row>
@@ -9157,7 +9479,7 @@
         <v>196</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A24,"',",B24,",",C24,",'",D24,"')")</f>
         <v>('21FRT596',11/07/2020,15,'NCBLRB66L62F989D')</v>
       </c>
     </row>
@@ -9175,7 +9497,7 @@
         <v>191</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A25,"',",B25,",",C25,",'",D25,"')")</f>
         <v>('21FRT597',12/07/2020,15,'NHZBFE57P18D945W')</v>
       </c>
     </row>
@@ -9193,7 +9515,7 @@
         <v>186</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A26,"',",B26,",",C26,",'",D26,"')")</f>
         <v>('21FRT598',13/07/2020,15,'VGEZNN91S21G597I')</v>
       </c>
     </row>
@@ -9211,7 +9533,7 @@
         <v>178</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A27,"',",B27,",",C27,",'",D27,"')")</f>
         <v>('21FRT599',12/07/2020,20,'MCTNNR43A41L873P')</v>
       </c>
     </row>
@@ -9229,7 +9551,7 @@
         <v>170</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A28,"',",B28,",",C28,",'",D28,"')")</f>
         <v>('21FRT600',17/10/2020,20,'TBGDZG82D15I217F')</v>
       </c>
     </row>
@@ -9247,7 +9569,7 @@
         <v>162</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A29,"',",B29,",",C29,",'",D29,"')")</f>
         <v>('21FRT601',16/07/2020,20,'RGGTKN91P30B234G')</v>
       </c>
     </row>
@@ -9265,7 +9587,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A30,"',",B30,",",C30,",'",D30,"')")</f>
         <v>('13CDT602',17/07/2020,20,'MWVDHC53P04E830X')</v>
       </c>
     </row>
@@ -9277,16 +9599,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65FB95C-249D-46F1-81DC-4CF103DC0D6A}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -9373,13 +9695,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -9393,13 +9715,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -9408,18 +9730,18 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B7" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -9428,18 +9750,18 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -9448,18 +9770,18 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -9468,18 +9790,18 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -9488,18 +9810,18 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B11" t="s">
         <v>381</v>
       </c>
       <c r="C11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -9508,18 +9830,18 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B12" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C12" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -9528,18 +9850,18 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B13" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -9548,254 +9870,933 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B14" t="s">
-        <v>816</v>
+        <v>820</v>
+      </c>
+      <c r="C14" t="s">
+        <v>817</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B15" t="s">
-        <v>817</v>
+        <v>821</v>
+      </c>
+      <c r="C15" t="s">
+        <v>818</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B16" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+      <c r="C16" t="s">
+        <v>819</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>830</v>
+      </c>
+      <c r="B17" t="s">
+        <v>841</v>
+      </c>
+      <c r="C17" t="s">
+        <v>838</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>831</v>
+      </c>
+      <c r="B18" t="s">
+        <v>839</v>
+      </c>
+      <c r="C18" t="s">
+        <v>840</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>832</v>
+      </c>
+      <c r="B19" t="s">
+        <v>836</v>
+      </c>
+      <c r="C19" t="s">
+        <v>835</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>844</v>
+      </c>
+      <c r="B20" t="s">
+        <v>849</v>
+      </c>
+      <c r="C20" t="s">
+        <v>848</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>845</v>
+      </c>
+      <c r="B21" t="s">
+        <v>852</v>
+      </c>
+      <c r="C21" t="s">
+        <v>853</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>846</v>
+      </c>
+      <c r="B22" t="s">
+        <v>877</v>
+      </c>
+      <c r="C22" t="s">
+        <v>878</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>850</v>
+      </c>
+      <c r="B23" t="s">
+        <v>880</v>
+      </c>
+      <c r="C23" t="s">
+        <v>881</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>866</v>
+      </c>
+      <c r="B24" t="s">
+        <v>867</v>
+      </c>
+      <c r="C24" t="s">
+        <v>879</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>869</v>
+      </c>
+      <c r="B25" t="s">
+        <v>882</v>
+      </c>
+      <c r="C25" t="s">
+        <v>885</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>870</v>
+      </c>
+      <c r="B26" t="s">
+        <v>883</v>
+      </c>
+      <c r="C26" t="s">
+        <v>884</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>871</v>
+      </c>
+      <c r="B27" t="s">
+        <v>799</v>
+      </c>
+      <c r="C27" t="s">
+        <v>891</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>872</v>
+      </c>
+      <c r="B28" t="s">
+        <v>897</v>
+      </c>
+      <c r="C28" t="s">
+        <v>892</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>873</v>
+      </c>
+      <c r="B29" t="s">
+        <v>898</v>
+      </c>
+      <c r="C29" t="s">
+        <v>893</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>886</v>
+      </c>
+      <c r="B30" t="s">
+        <v>897</v>
+      </c>
+      <c r="C30" t="s">
+        <v>899</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>887</v>
+      </c>
+      <c r="B31" t="s">
+        <v>791</v>
+      </c>
+      <c r="C31" t="s">
+        <v>911</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>888</v>
+      </c>
+      <c r="B32" t="s">
+        <v>922</v>
+      </c>
+      <c r="C32" t="s">
+        <v>923</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>889</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>907</v>
+      </c>
+      <c r="B34" t="s">
+        <v>926</v>
+      </c>
+      <c r="C34" t="s">
+        <v>925</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>908</v>
+      </c>
+      <c r="B35" t="s">
+        <v>791</v>
+      </c>
+      <c r="C35" t="s">
+        <v>912</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>732</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B36" t="s">
         <v>750</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C36" t="s">
         <v>744</v>
       </c>
-      <c r="D18">
+      <c r="D36">
         <v>0</v>
       </c>
-      <c r="E18">
+      <c r="E36">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>739</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C37" t="s">
         <v>745</v>
       </c>
-      <c r="D19">
+      <c r="D37">
         <v>0</v>
       </c>
-      <c r="E19">
+      <c r="E37">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>740</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C38" t="s">
         <v>746</v>
       </c>
-      <c r="D20">
+      <c r="D38">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="E38">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>741</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C39" t="s">
         <v>747</v>
       </c>
-      <c r="D21">
+      <c r="D39">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E39">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>742</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C40" t="s">
         <v>748</v>
       </c>
-      <c r="D22">
+      <c r="D40">
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E40">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>743</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C41" t="s">
         <v>749</v>
       </c>
-      <c r="D23">
+      <c r="D41">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E41">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>758</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B42" t="s">
         <v>762</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C42" t="s">
         <v>760</v>
       </c>
-      <c r="D24">
+      <c r="D42">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E42">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>759</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B43" t="s">
         <v>763</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C43" t="s">
         <v>761</v>
       </c>
-      <c r="D25">
+      <c r="D43">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E43">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>767</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>766</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C44" t="s">
         <v>765</v>
       </c>
-      <c r="C26" t="s">
-        <v>766</v>
-      </c>
-      <c r="D26">
+      <c r="D44">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E44">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>787</v>
+      </c>
+      <c r="B45" t="s">
+        <v>791</v>
+      </c>
+      <c r="C45" t="s">
+        <v>792</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>788</v>
       </c>
-      <c r="B27" t="s">
-        <v>792</v>
-      </c>
-      <c r="C27" t="s">
-        <v>793</v>
-      </c>
-      <c r="D27">
+      <c r="B46" t="s">
+        <v>789</v>
+      </c>
+      <c r="C46" t="s">
+        <v>790</v>
+      </c>
+      <c r="D46">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E46">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>789</v>
-      </c>
-      <c r="B28" t="s">
-        <v>790</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>802</v>
+      </c>
+      <c r="B47" t="s">
         <v>791</v>
       </c>
-      <c r="D28">
+      <c r="C47" t="s">
+        <v>745</v>
+      </c>
+      <c r="D47">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E47">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>804</v>
-      </c>
-      <c r="B29" t="s">
-        <v>792</v>
-      </c>
-      <c r="C29" t="s">
-        <v>745</v>
-      </c>
-      <c r="D29">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>813</v>
+      </c>
+      <c r="B48" t="s">
+        <v>811</v>
+      </c>
+      <c r="C48" t="s">
+        <v>812</v>
+      </c>
+      <c r="D48">
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="E48">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>815</v>
-      </c>
-      <c r="B30" t="s">
-        <v>813</v>
-      </c>
-      <c r="C30" t="s">
-        <v>814</v>
-      </c>
-      <c r="D30">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>826</v>
+      </c>
+      <c r="B49" t="s">
+        <v>824</v>
+      </c>
+      <c r="C49" t="s">
+        <v>823</v>
+      </c>
+      <c r="D49">
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>827</v>
+      </c>
+      <c r="B50" t="s">
+        <v>771</v>
+      </c>
+      <c r="C50" t="s">
+        <v>825</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>828</v>
+      </c>
+      <c r="B51" t="s">
+        <v>842</v>
+      </c>
+      <c r="C51" t="s">
+        <v>843</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>829</v>
+      </c>
+      <c r="B52" t="s">
+        <v>791</v>
+      </c>
+      <c r="C52" t="s">
+        <v>868</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>854</v>
+      </c>
+      <c r="B53" t="s">
+        <v>919</v>
+      </c>
+      <c r="C53" t="s">
+        <v>890</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>855</v>
+      </c>
+      <c r="B54" t="s">
+        <v>901</v>
+      </c>
+      <c r="C54" t="s">
+        <v>902</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>856</v>
+      </c>
+      <c r="B55" t="s">
+        <v>917</v>
+      </c>
+      <c r="C55" t="s">
+        <v>909</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>857</v>
+      </c>
+      <c r="B56" t="s">
+        <v>918</v>
+      </c>
+      <c r="C56" t="s">
+        <v>910</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>858</v>
+      </c>
+      <c r="B57" t="s">
+        <v>914</v>
+      </c>
+      <c r="C57" t="s">
+        <v>913</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>859</v>
+      </c>
+      <c r="B58" t="s">
+        <v>916</v>
+      </c>
+      <c r="C58" t="s">
+        <v>898</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>860</v>
+      </c>
+      <c r="B59" t="s">
+        <v>915</v>
+      </c>
+      <c r="C59" t="s">
+        <v>843</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>861</v>
+      </c>
+      <c r="B60" t="s">
+        <v>920</v>
+      </c>
+      <c r="C60" t="s">
+        <v>921</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>862</v>
+      </c>
+      <c r="B61" t="s">
+        <v>924</v>
+      </c>
+      <c r="C61" t="s">
+        <v>672</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>863</v>
+      </c>
+      <c r="B62" t="s">
+        <v>915</v>
+      </c>
+      <c r="C62" t="s">
+        <v>672</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>864</v>
+      </c>
+      <c r="B63" t="s">
+        <v>928</v>
+      </c>
+      <c r="C63" t="s">
+        <v>929</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>865</v>
+      </c>
+      <c r="B64" t="s">
+        <v>809</v>
+      </c>
+      <c r="C64" t="s">
+        <v>930</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
         <v>1</v>
       </c>
     </row>
@@ -9805,18 +10806,19 @@
     <hyperlink ref="B5" r:id="rId1" tooltip="John C. Reilly" display="https://it.wikipedia.org/wiki/John_C._Reilly" xr:uid="{3973D584-3424-4489-9077-1F9DE06CD1DE}"/>
     <hyperlink ref="B6" r:id="rId2" tooltip="Sarah Silverman" display="https://it.wikipedia.org/wiki/Sarah_Silverman" xr:uid="{CF37A940-646B-47E1-AED1-968881DDF45E}"/>
     <hyperlink ref="B7" r:id="rId3" tooltip="Jack McBrayer" display="https://it.wikipedia.org/wiki/Jack_McBrayer" xr:uid="{DBA82F22-36AF-4030-924A-D763E9E7D93D}"/>
+    <hyperlink ref="B21" r:id="rId4" tooltip="Josh Gad" display="https://it.wikipedia.org/wiki/Josh_Gad" xr:uid="{BE1AE1EF-8A12-412D-A591-3EFC04E4F4EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291090D6-CAF3-4CB8-B4C5-6D2A70185058}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135:B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9860,7 +10862,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B5" t="s">
         <v>692</v>
@@ -9868,7 +10870,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B6" t="s">
         <v>692</v>
@@ -9876,7 +10878,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B7" t="s">
         <v>692</v>
@@ -9884,7 +10886,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B8" t="s">
         <v>691</v>
@@ -9892,7 +10894,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B9" t="s">
         <v>691</v>
@@ -9900,7 +10902,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B10" t="s">
         <v>691</v>
@@ -9908,7 +10910,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B11" t="s">
         <v>690</v>
@@ -9916,7 +10918,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B12" t="s">
         <v>690</v>
@@ -9924,146 +10926,1120 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B13" t="s">
         <v>690</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>782</v>
+      </c>
+      <c r="B14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>783</v>
+      </c>
+      <c r="B15" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>784</v>
+      </c>
+      <c r="B16" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>830</v>
+      </c>
+      <c r="B17" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>831</v>
+      </c>
+      <c r="B18" t="s">
+        <v>688</v>
+      </c>
+    </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>732</v>
+        <v>832</v>
       </c>
       <c r="B19" t="s">
-        <v>560</v>
+        <v>688</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>739</v>
+        <v>844</v>
       </c>
       <c r="B20" t="s">
-        <v>561</v>
+        <v>687</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="B21" t="s">
-        <v>562</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>740</v>
+        <v>768</v>
       </c>
       <c r="B22" t="s">
-        <v>563</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>741</v>
+        <v>776</v>
       </c>
       <c r="B23" t="s">
-        <v>562</v>
+        <v>686</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
       <c r="B24" t="s">
-        <v>563</v>
+        <v>686</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>742</v>
+        <v>778</v>
       </c>
       <c r="B25" t="s">
-        <v>564</v>
+        <v>686</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>743</v>
+        <v>845</v>
       </c>
       <c r="B26" t="s">
-        <v>565</v>
+        <v>686</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>758</v>
+        <v>846</v>
       </c>
       <c r="B27" t="s">
-        <v>693</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>759</v>
+        <v>846</v>
       </c>
       <c r="B28" t="s">
-        <v>693</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>767</v>
+        <v>846</v>
       </c>
       <c r="B29" t="s">
-        <v>692</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>788</v>
+        <v>846</v>
       </c>
       <c r="B30" t="s">
-        <v>691</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>789</v>
+        <v>846</v>
       </c>
       <c r="B31" t="s">
-        <v>691</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>804</v>
+        <v>846</v>
       </c>
       <c r="B32" t="s">
-        <v>690</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>759</v>
+        <v>846</v>
       </c>
       <c r="B33" t="s">
-        <v>690</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>815</v>
+        <v>846</v>
       </c>
       <c r="B34" t="s">
-        <v>689</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>767</v>
+        <v>850</v>
       </c>
       <c r="B35" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>850</v>
+      </c>
+      <c r="B36" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>850</v>
+      </c>
+      <c r="B37" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>850</v>
+      </c>
+      <c r="B38" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>850</v>
+      </c>
+      <c r="B39" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>850</v>
+      </c>
+      <c r="B40" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>850</v>
+      </c>
+      <c r="B41" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>850</v>
+      </c>
+      <c r="B42" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>866</v>
+      </c>
+      <c r="B43" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>866</v>
+      </c>
+      <c r="B44" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>866</v>
+      </c>
+      <c r="B45" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>866</v>
+      </c>
+      <c r="B46" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>866</v>
+      </c>
+      <c r="B47" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>866</v>
+      </c>
+      <c r="B48" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>866</v>
+      </c>
+      <c r="B49" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>866</v>
+      </c>
+      <c r="B50" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>869</v>
+      </c>
+      <c r="B51" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>869</v>
+      </c>
+      <c r="B52" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>869</v>
+      </c>
+      <c r="B53" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>869</v>
+      </c>
+      <c r="B54" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>869</v>
+      </c>
+      <c r="B55" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>869</v>
+      </c>
+      <c r="B56" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>870</v>
+      </c>
+      <c r="B57" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>870</v>
+      </c>
+      <c r="B58" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>870</v>
+      </c>
+      <c r="B59" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>870</v>
+      </c>
+      <c r="B60" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>870</v>
+      </c>
+      <c r="B61" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>870</v>
+      </c>
+      <c r="B62" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>871</v>
+      </c>
+      <c r="B63" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>871</v>
+      </c>
+      <c r="B64" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>871</v>
+      </c>
+      <c r="B65" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>872</v>
+      </c>
+      <c r="B66" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>872</v>
+      </c>
+      <c r="B67" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>872</v>
+      </c>
+      <c r="B68" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>873</v>
+      </c>
+      <c r="B69" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>873</v>
+      </c>
+      <c r="B70" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>873</v>
+      </c>
+      <c r="B71" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>886</v>
+      </c>
+      <c r="B72" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>886</v>
+      </c>
+      <c r="B73" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>886</v>
+      </c>
+      <c r="B74" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>886</v>
+      </c>
+      <c r="B75" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>886</v>
+      </c>
+      <c r="B76" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>886</v>
+      </c>
+      <c r="B77" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>886</v>
+      </c>
+      <c r="B78" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>886</v>
+      </c>
+      <c r="B79" t="s">
+        <v>624</v>
+      </c>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>886</v>
+      </c>
+      <c r="B80" t="s">
+        <v>626</v>
+      </c>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>886</v>
+      </c>
+      <c r="B81" t="s">
+        <v>627</v>
+      </c>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>886</v>
+      </c>
+      <c r="B82" t="s">
+        <v>629</v>
+      </c>
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>886</v>
+      </c>
+      <c r="B83" t="s">
+        <v>630</v>
+      </c>
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>886</v>
+      </c>
+      <c r="B84" t="s">
+        <v>633</v>
+      </c>
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>886</v>
+      </c>
+      <c r="B85" t="s">
+        <v>635</v>
+      </c>
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>887</v>
+      </c>
+      <c r="B86" t="s">
+        <v>627</v>
+      </c>
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>887</v>
+      </c>
+      <c r="B87" t="s">
+        <v>629</v>
+      </c>
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>887</v>
+      </c>
+      <c r="B88" t="s">
+        <v>631</v>
+      </c>
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>887</v>
+      </c>
+      <c r="B89" t="s">
+        <v>633</v>
+      </c>
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>888</v>
+      </c>
+      <c r="B90" t="s">
+        <v>625</v>
+      </c>
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>888</v>
+      </c>
+      <c r="B91" t="s">
+        <v>629</v>
+      </c>
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>888</v>
+      </c>
+      <c r="B92" t="s">
+        <v>633</v>
+      </c>
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>889</v>
+      </c>
+      <c r="B93" t="s">
+        <v>636</v>
+      </c>
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>907</v>
+      </c>
+      <c r="B94" t="s">
+        <v>634</v>
+      </c>
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>907</v>
+      </c>
+      <c r="B95" t="s">
+        <v>635</v>
+      </c>
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>908</v>
+      </c>
+      <c r="B96" t="s">
+        <v>628</v>
+      </c>
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>908</v>
+      </c>
+      <c r="B97" t="s">
+        <v>629</v>
+      </c>
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>908</v>
+      </c>
+      <c r="B98" t="s">
+        <v>632</v>
+      </c>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>908</v>
+      </c>
+      <c r="B99" t="s">
+        <v>633</v>
+      </c>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>908</v>
+      </c>
+      <c r="B100" t="s">
+        <v>635</v>
+      </c>
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>732</v>
+      </c>
+      <c r="B101" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>739</v>
+      </c>
+      <c r="B102" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>740</v>
+      </c>
+      <c r="B103" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>740</v>
+      </c>
+      <c r="B104" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>741</v>
+      </c>
+      <c r="B105" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>741</v>
+      </c>
+      <c r="B106" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>742</v>
+      </c>
+      <c r="B107" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>743</v>
+      </c>
+      <c r="B108" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>758</v>
+      </c>
+      <c r="B109" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>759</v>
+      </c>
+      <c r="B110" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>766</v>
+      </c>
+      <c r="B111" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>787</v>
+      </c>
+      <c r="B112" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>788</v>
+      </c>
+      <c r="B113" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>802</v>
+      </c>
+      <c r="B114" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>759</v>
+      </c>
+      <c r="B115" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>813</v>
+      </c>
+      <c r="B116" t="s">
         <v>689</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>766</v>
+      </c>
+      <c r="B117" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>826</v>
+      </c>
+      <c r="B118" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>827</v>
+      </c>
+      <c r="B119" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>828</v>
+      </c>
+      <c r="B120" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>766</v>
+      </c>
+      <c r="B121" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>787</v>
+      </c>
+      <c r="B122" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>788</v>
+      </c>
+      <c r="B123" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>829</v>
+      </c>
+      <c r="B124" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>829</v>
+      </c>
+      <c r="B125" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>829</v>
+      </c>
+      <c r="B126" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>829</v>
+      </c>
+      <c r="B127" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>829</v>
+      </c>
+      <c r="B128" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>829</v>
+      </c>
+      <c r="B129" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>829</v>
+      </c>
+      <c r="B130" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>829</v>
+      </c>
+      <c r="B131" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>854</v>
+      </c>
+      <c r="B132" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>854</v>
+      </c>
+      <c r="B133" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>854</v>
+      </c>
+      <c r="B134" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>855</v>
+      </c>
+      <c r="B135" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>857</v>
+      </c>
+      <c r="B136" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>855</v>
+      </c>
+      <c r="B137" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>858</v>
+      </c>
+      <c r="B138" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>860</v>
+      </c>
+      <c r="B139" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>861</v>
+      </c>
+      <c r="B140" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>856</v>
+      </c>
+      <c r="B141" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>859</v>
+      </c>
+      <c r="B142" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>862</v>
+      </c>
+      <c r="B143" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>861</v>
+      </c>
+      <c r="B144" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>864</v>
+      </c>
+      <c r="B145" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>862</v>
+      </c>
+      <c r="B146" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>865</v>
+      </c>
+      <c r="B147" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>863</v>
+      </c>
+      <c r="B148" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>863</v>
+      </c>
+      <c r="B149" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -10185,7 +12161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC505CEB-BB95-4900-BE15-4023EC3EF945}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D39"/>
     </sheetView>
   </sheetViews>

--- a/Query per popolare il DB/RiempimentoDB.xlsx
+++ b/Query per popolare il DB/RiempimentoDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caste\Desktop\2ndYear\db\ProgettoBasiDiDati\Query per popolare il DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73B0EDE-2BA2-44C9-83DD-FDAF577074FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EE1223-3ECE-472D-98E0-43D906B9A7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="751" activeTab="2" xr2:uid="{8B2E1F49-2C79-4923-92B4-4A167F7E9540}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="751" activeTab="9" xr2:uid="{8B2E1F49-2C79-4923-92B4-4A167F7E9540}"/>
   </bookViews>
   <sheets>
     <sheet name="CAST" sheetId="14" r:id="rId1"/>
@@ -2994,10 +2994,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5037,7 +5037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D98D9EE-02FF-4CD3-B3E7-4B10FBF884E9}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -5071,13 +5071,13 @@
       <c r="E1" t="s">
         <v>722</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="7"/>
       <c r="N1" t="s">
         <v>559</v>
@@ -5100,11 +5100,11 @@
         <v>2011</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F39" si="0">_xlfn.CONCAT("('",A2,"','",B2,"',",C2,",'",D2,"',",E2,")")</f>
+        <f>_xlfn.CONCAT("('",A2,"','",B2,"',",C2,",'",D2,"',",E2,")")</f>
         <v>('DIS1','Winnie the Pooh – Nuove avventure nel Bosco dei 100 Acri','00:58:00','T',2011)</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G39" si="1">_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F2)</f>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F2)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS1','Winnie the Pooh – Nuove avventure nel Bosco dei 100 Acri','00:58:00','T',2011)</v>
       </c>
       <c r="H2" t="s">
@@ -5128,11 +5128,11 @@
         <v>2012</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A3,"','",B3,"',",C3,",'",D3,"',",E3,")")</f>
         <v>('DIS2','Ralph Spaccatutto','01:30:00','T',2012)</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F3)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS2','Ralph Spaccatutto','01:30:00','T',2012)</v>
       </c>
       <c r="H3" t="s">
@@ -5156,11 +5156,11 @@
         <v>2013</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A4,"','",B4,"',",C4,",'",D4,"',",E4,")")</f>
         <v>('DIS3','Frozen – Il regno di ghiaccio','01:00:00','T',2013)</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F4)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS3','Frozen – Il regno di ghiaccio','01:00:00','T',2013)</v>
       </c>
       <c r="H4" t="s">
@@ -5184,11 +5184,11 @@
         <v>2014</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A5,"','",B5,"',",C5,",'",D5,"',",E5,")")</f>
         <v>('DIS4','Big Hero 6','01:15:00','T',2014)</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F5)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS4','Big Hero 6','01:15:00','T',2014)</v>
       </c>
       <c r="H5" t="s">
@@ -5212,11 +5212,11 @@
         <v>2015</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A6,"','",B6,"',",C6,",'",D6,"',",E6,")")</f>
         <v>('DIS5','Zootropolis','01:25:00','T',2015)</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F6)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS5','Zootropolis','01:25:00','T',2015)</v>
       </c>
       <c r="H6" t="s">
@@ -5240,11 +5240,11 @@
         <v>2016</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A7,"','",B7,"',",C7,",'",D7,"',",E7,")")</f>
         <v>('DIS6','Oceania','01:30:00','T',2016)</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F7)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS6','Oceania','01:30:00','T',2016)</v>
       </c>
       <c r="H7" t="s">
@@ -5268,11 +5268,11 @@
         <v>2019</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A8,"','",B8,"',",C8,",'",D8,"',",E8,")")</f>
         <v>('DIS7','Ralph Spacca Internet – Ralph Spaccatutto 2','01:02:00','T',2019)</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F8)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS7','Ralph Spacca Internet – Ralph Spaccatutto 2','01:02:00','T',2019)</v>
       </c>
       <c r="H8" t="s">
@@ -5296,11 +5296,11 @@
         <v>2019</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A9,"','",B9,"',",C9,",'",D9,"',",E9,")")</f>
         <v>('DIS8','Frozen II – Il segreto di Arendelle  ','01:14:00','T',2019)</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F9)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('DIS8','Frozen II – Il segreto di Arendelle  ','01:14:00','T',2019)</v>
       </c>
       <c r="H9" t="s">
@@ -5324,11 +5324,11 @@
         <v>2001</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A10,"','",B10,"',",C10,",'",D10,"',",E10,")")</f>
         <v>('WARN1','Harry Potter e La Pietra Filosofale ','02:10:00','VM14',2001)</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F10)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN1','Harry Potter e La Pietra Filosofale ','02:10:00','VM14',2001)</v>
       </c>
       <c r="H10" t="s">
@@ -5358,11 +5358,11 @@
         <v>2002</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A11,"','",B11,"',",C11,",'",D11,"',",E11,")")</f>
         <v>('WARN2','Harry Potter e La Camera Dei Segreti ','02:07:00','VM14',2002)</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F11)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN2','Harry Potter e La Camera Dei Segreti ','02:07:00','VM14',2002)</v>
       </c>
       <c r="H11" t="s">
@@ -5392,11 +5392,11 @@
         <v>2004</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A12,"','",B12,"',",C12,",'",D12,"',",E12,")")</f>
         <v>('WARN3','Harry Potter e Il Prigioniero Di Azkaban ','02:20:00','VM14',2004)</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F12)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN3','Harry Potter e Il Prigioniero Di Azkaban ','02:20:00','VM14',2004)</v>
       </c>
       <c r="H12" t="s">
@@ -5426,11 +5426,11 @@
         <v>2005</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A13,"','",B13,"',",C13,",'",D13,"',",E13,")")</f>
         <v>('WARN4','Harry Potter e Il Calice Di Fuoco ','02:15:00','VM14',2005)</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F13)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN4','Harry Potter e Il Calice Di Fuoco ','02:15:00','VM14',2005)</v>
       </c>
       <c r="H13" t="s">
@@ -5460,11 +5460,11 @@
         <v>2007</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A14,"','",B14,"',",C14,",'",D14,"',",E14,")")</f>
         <v>('WARN5','Harry Potter e L'Ordine Della Fenice ','02:05:00','VM14',2007)</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F14)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN5','Harry Potter e L'Ordine Della Fenice ','02:05:00','VM14',2007)</v>
       </c>
       <c r="H14" t="s">
@@ -5494,11 +5494,11 @@
         <v>2009</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A15,"','",B15,"',",C15,",'",D15,"',",E15,")")</f>
         <v>('WARN6','Harry Potter e Il Principe Mezzosangue ','02:12:00','VM14',2009)</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F15)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN6','Harry Potter e Il Principe Mezzosangue ','02:12:00','VM14',2009)</v>
       </c>
       <c r="H15" t="s">
@@ -5528,11 +5528,11 @@
         <v>2010</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A16,"','",B16,"',",C16,",'",D16,"',",E16,")")</f>
         <v>('WARN7','Harry Potter e I Doni Della Morte – Parte 1 ','02:17:00','VM14',2010)</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F16)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN7','Harry Potter e I Doni Della Morte – Parte 1 ','02:17:00','VM14',2010)</v>
       </c>
       <c r="H16" t="s">
@@ -5562,11 +5562,11 @@
         <v>2011</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A17,"','",B17,"',",C17,",'",D17,"',",E17,")")</f>
         <v>('WARN8','Harry Potter e I Doni Della Morte – Parte 2 ','02:25:00','VM14',2011)</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F17)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('WARN8','Harry Potter e I Doni Della Morte – Parte 2 ','02:25:00','VM14',2011)</v>
       </c>
       <c r="H17" t="s">
@@ -5596,11 +5596,11 @@
         <v>2007</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A18,"','",B18,"',",C18,",'",D18,"',",E18,")")</f>
         <v>('HOR1','Paranormal activity','01:38:00','VM18',2007)</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F18)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR1','Paranormal activity','01:38:00','VM18',2007)</v>
       </c>
       <c r="H18" t="s">
@@ -5630,11 +5630,11 @@
         <v>2010</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A19,"','",B19,"',",C19,",'",D19,"',",E19,")")</f>
         <v>('HOR2','Paranormal activity 2','01:42:00','VM18',2010)</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F19)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR2','Paranormal activity 2','01:42:00','VM18',2010)</v>
       </c>
       <c r="H19" t="s">
@@ -5667,11 +5667,11 @@
         <v>2011</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A20,"','",B20,"',",C20,",'",D20,"',",E20,")")</f>
         <v>('HOR3','Paranormal activity 3 ','01:47:00','VM18',2011)</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F20)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR3','Paranormal activity 3 ','01:47:00','VM18',2011)</v>
       </c>
       <c r="H20" t="s">
@@ -5701,11 +5701,11 @@
         <v>2012</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A21,"','",B21,"',",C21,",'",D21,"',",E21,")")</f>
         <v>('HOR4','Paranormal activity 4 ','01:39:00','VM18',2012)</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F21)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR4','Paranormal activity 4 ','01:39:00','VM18',2012)</v>
       </c>
       <c r="H21" t="s">
@@ -5735,11 +5735,11 @@
         <v>2014</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A22,"','",B22,"',",C22,",'",D22,"',",E22,")")</f>
         <v>('HOR5','Il segnato','01:51:00','VM18',2014)</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F22)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR5','Il segnato','01:51:00','VM18',2014)</v>
       </c>
       <c r="H22" t="s">
@@ -5778,11 +5778,11 @@
         <v>2015</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A23,"','",B23,"',",C23,",'",D23,"',",E23,")")</f>
         <v>('HOR6','Paranormal activity: La dimensione fantasma','01:27:00','VM18',2015)</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F23)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('HOR6','Paranormal activity: La dimensione fantasma','01:27:00','VM18',2015)</v>
       </c>
       <c r="H23" t="s">
@@ -5812,11 +5812,11 @@
         <v>2008</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A24,"','",B24,"',",C24,",'",D24,"',",E24,")")</f>
         <v>('TWIL1','Twilight','02:00:00','VM14',2008)</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F24)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('TWIL1','Twilight','02:00:00','VM14',2008)</v>
       </c>
       <c r="H24" t="s">
@@ -5855,11 +5855,11 @@
         <v>2009</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A25,"','",B25,"',",C25,",'",D25,"',",E25,")")</f>
         <v>('TWIL2','The Twilight Saga: New Moon','02:20:00','VM15',2009)</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F25)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('TWIL2','The Twilight Saga: New Moon','02:20:00','VM15',2009)</v>
       </c>
       <c r="H25" t="s">
@@ -5895,11 +5895,11 @@
         <v>2010</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A26,"','",B26,"',",C26,",'",D26,"',",E26,")")</f>
         <v>('TWIL3','Twilight / New Moon ','01:50:00','VM16',2010)</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F26)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('TWIL3','Twilight / New Moon ','01:50:00','VM16',2010)</v>
       </c>
       <c r="H26" t="s">
@@ -5935,11 +5935,11 @@
         <v>2008</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A27,"','",B27,"',",C27,",'",D27,"',",E27,")")</f>
         <v>('AVEN1','Iron Man ','01:40:00','T',2008)</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F27)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN1','Iron Man ','01:40:00','T',2008)</v>
       </c>
       <c r="H27" t="s">
@@ -5972,11 +5972,11 @@
         <v>2008</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A28,"','",B28,"',",C28,",'",D28,"',",E28,")")</f>
         <v>('AVEN2','L'Incredibile Hulk ','02:00:00','T',2008)</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F28)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN2','L'Incredibile Hulk ','02:00:00','T',2008)</v>
       </c>
       <c r="H28" t="s">
@@ -6000,11 +6000,11 @@
         <v>2010</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A29,"','",B29,"',",C29,",'",D29,"',",E29,")")</f>
         <v>('AVEN3','Iron Man 2 ','01:55:00','T',2010)</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F29)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN3','Iron Man 2 ','01:55:00','T',2010)</v>
       </c>
       <c r="H29" t="s">
@@ -6028,11 +6028,11 @@
         <v>2011</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A30,"','",B30,"',",C30,",'",D30,"',",E30,")")</f>
         <v>('AVEN4','Thor ','02:05:00','T',2011)</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F30)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN4','Thor ','02:05:00','T',2011)</v>
       </c>
       <c r="H30" t="s">
@@ -6056,11 +6056,11 @@
         <v>2011</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A31,"','",B31,"',",C31,",'",D31,"',",E31,")")</f>
         <v>('AVEN5','Captain America: Il Primo Vendicatore ','02:20:00','T',2011)</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F31)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN5','Captain America: Il Primo Vendicatore ','02:20:00','T',2011)</v>
       </c>
       <c r="H31" t="s">
@@ -6084,11 +6084,11 @@
         <v>2012</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A32,"','",B32,"',",C32,",'",D32,"',",E32,")")</f>
         <v>('AVEN6','Avengers ','02:00:00','T',2012)</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F32)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN6','Avengers ','02:00:00','T',2012)</v>
       </c>
       <c r="H32" t="s">
@@ -6112,11 +6112,11 @@
         <v>2013</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A33,"','",B33,"',",C33,",'",D33,"',",E33,")")</f>
         <v>('AVEN7','Iron Man 3 ','02:05:00','T',2013)</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F33)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN7','Iron Man 3 ','02:05:00','T',2013)</v>
       </c>
       <c r="H33" t="s">
@@ -6140,11 +6140,11 @@
         <v>2013</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A34,"','",B34,"',",C34,",'",D34,"',",E34,")")</f>
         <v>('AVEN8','Thor: The Dark World ','01:45:00','T',2013)</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F34)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN8','Thor: The Dark World ','01:45:00','T',2013)</v>
       </c>
       <c r="H34" t="s">
@@ -6168,11 +6168,11 @@
         <v>2014</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A35,"','",B35,"',",C35,",'",D35,"',",E35,")")</f>
         <v>('AVEN9','Captain America: The Winter Soldier','01:52:00','T',2014)</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F35)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN9','Captain America: The Winter Soldier','01:52:00','T',2014)</v>
       </c>
       <c r="H35" t="s">
@@ -6196,11 +6196,11 @@
         <v>2015</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A36,"','",B36,"',",C36,",'",D36,"',",E36,")")</f>
         <v>('AVEN10','Avengers: Age of Ultron ','01:46:00','T',2015)</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F36)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN10','Avengers: Age of Ultron ','01:46:00','T',2015)</v>
       </c>
       <c r="H36" t="s">
@@ -6224,11 +6224,11 @@
         <v>2015</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A37,"','",B37,"',",C37,",'",D37,"',",E37,")")</f>
         <v>('AVEN11','Ant-Man','01:45:00','T',2015)</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F37)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN11','Ant-Man','01:45:00','T',2015)</v>
       </c>
       <c r="H37" t="s">
@@ -6252,11 +6252,11 @@
         <v>2016</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A38,"','",B38,"',",C38,",'",D38,"',",E38,")")</f>
         <v>('AVEN12','Captain America: Civil War ','01:52:00','T',2016)</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F38)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN12','Captain America: Civil War ','01:52:00','T',2016)</v>
       </c>
       <c r="H38" t="s">
@@ -6280,11 +6280,11 @@
         <v>2016</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("('",A39,"','",B39,"',",C39,",'",D39,"',",E39,")")</f>
         <v>('AVEN13','Doctor Strange','01:42:00','T',2016)</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("INSERT INTO FILM (",$A$1,",",$B$1,",",$C$1,",",$D$1,",",$E$1,")"," VALUES ",F39)</f>
         <v>INSERT INTO FILM (codFilm,titolo,durataComplessiva,vistoCensura,annoUscita) VALUES ('AVEN13','Doctor Strange','01:42:00','T',2016)</v>
       </c>
       <c r="H39" t="s">
@@ -6339,13 +6339,13 @@
       <c r="E1" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
       <c r="M1" s="4"/>
       <c r="N1" t="s">
         <v>559</v>
@@ -14193,7 +14193,7 @@
       <c r="B1" t="s">
         <v>958</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -14203,7 +14203,7 @@
         <v>941</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C15" si="0">_xlfn.CONCAT("('",A2,"','",B2,"')")</f>
+        <f t="shared" ref="C2:C14" si="0">_xlfn.CONCAT("('",A2,"','",B2,"')")</f>
         <v>('COM','Commedia')</v>
       </c>
       <c r="D2" t="str">
@@ -14412,7 +14412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A29CF76-A3DA-4E84-A1A4-823299F15B9A}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D85"/>
     </sheetView>
   </sheetViews>
